--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="286">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1075,6 +1075,25 @@
   </si>
   <si>
     <t>经过约6小时，拟合精度还能提高，泛化精度难再提高了，慢慢分化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=5 use_biases=yes use_bn_low=True dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，PCA及Wavelet处理数据train-hjxh365-2018-4-16-day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=39 --input_nodes=39 --low_nums=5 --low_nodes=39 --low_fun=elu --use_bn_input=True --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_low=0.8</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-4-23-class14-pca99-wavelet20-percent65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约82小时，拟合精度还能提高，泛化精度看来还可以再提高一点，不过慢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1457,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3986,6 +4005,44 @@
       </c>
       <c r="L68" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A69" s="6">
+        <v>43213.034722222219</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="L69" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="290">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1095,6 +1095,20 @@
   <si>
     <t>经过约82小时，拟合精度还能提高，泛化精度看来还可以再提高一点，不过慢</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=39 --input_nodes=39 --use_bn_input=True --low_nums=2 --low_nodes=39 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes use_bn_low=True dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15小时，拟合精度还能提高，泛化精度还可以再提高，不过慢，两者还没有分化，泛化在拟合之上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-4-23-high-norm-pca99-vavelet20-percent64</t>
   </si>
 </sst>
 </file>
@@ -1476,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4043,6 +4057,44 @@
       </c>
       <c r="L69" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A70" s="6">
+        <v>43213.034722222219</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="L70" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="294">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1109,6 +1109,20 @@
   </si>
   <si>
     <t>logs-hjxh365-4-23-high-norm-pca99-vavelet20-percent64</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练，原始数据加上序列train-hjxh365-2018-4-16-day-high-sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=129 --input_nodes=129 --low_nums=2 --low_nodes=129 --low_fun=elu --use_bn_input=True --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-4-24-class14-sequence-percent60</t>
+  </si>
+  <si>
+    <t>经过约17小时，拟合精度还能提高，泛化精度无法提高了，还有点下降，两者已明显分化。看来加入单纯序列不利于泛化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1490,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4095,6 +4109,44 @@
       </c>
       <c r="L70" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A71" s="6">
+        <v>43214.347222222219</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="L71" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="297">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1122,6 +1122,18 @@
   </si>
   <si>
     <t>经过约17小时，拟合精度还能提高，泛化精度无法提高了，还有点下降，两者已明显分化。看来加入单纯序列不利于泛化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类Office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1507,7 +1519,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4002,7 +4014,7 @@
         <v>43213.034722222219</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>275</v>
@@ -4040,7 +4052,7 @@
         <v>43213.034722222219</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>275</v>
@@ -4078,7 +4090,7 @@
         <v>43213.034722222219</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>275</v>
@@ -4116,7 +4128,7 @@
         <v>43214.347222222219</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>275</v>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="301">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1135,6 +1135,21 @@
   <si>
     <t>分类O</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练，PCA及Wavelet处理数据train-hjxh365-2018-4-16-day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15小时，拟合精度还能提高，泛化精度还可以再提高，不过慢，两者还没有分化，泛化在拟合之上。和上次比变化很小。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-4-24-high-norm-pca99-vavelet20-percent64</t>
   </si>
 </sst>
 </file>
@@ -1516,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4159,6 +4174,44 @@
       </c>
       <c r="L71" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A72" s="6">
+        <v>43214.947916666664</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="L72" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="309">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1150,6 +1150,36 @@
   </si>
   <si>
     <t>logs-hjxh365-4-24-high-norm-pca99-vavelet20-percent64</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练，原始数据新加指标train-hjxh365-2018-4-16-day-high-original-more</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=92 --input_nodes=92 --low_nums=2 --low_nodes=92 --low_fun=elu --use_bn_input=True --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-4-25-class14-original-more-percent64</t>
+  </si>
+  <si>
+    <t>经过约22小时，拟合精度还能提高，泛化精度难再提高了，还有些下降，已分化。泛化表现不好，或许不需要批量归一化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes  dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约4小时，拟合精度在泛化精度之上，分化过早，所以提前终止。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=92 --input_nodes=92 --low_nums=2 --low_nodes=92 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-4-25-class14-original-more-percent64-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1531,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4212,6 +4242,82 @@
       </c>
       <c r="L72" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A73" s="6">
+        <v>43215.423611111109</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="L73" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A74" s="6">
+        <v>43215.606944444444</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="L74" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="311">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1180,6 +1180,13 @@
   <si>
     <t>logs-hjxh-2018-4-25-class14-original-more-percent64-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约14小时，拟合精度还能提高，泛化精度还可以再提高，不过慢，两者还没有分化，泛化在拟合之上。和上次比变化很小。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-4-25-high-norm-pca99-vavelet20-percent65</t>
   </si>
 </sst>
 </file>
@@ -1561,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4318,6 +4325,44 @@
       </c>
       <c r="L74" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A75" s="6">
+        <v>43215.916666666664</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="L75" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="315">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1187,6 +1187,20 @@
   </si>
   <si>
     <t>logs-hjxh365-4-25-high-norm-pca99-vavelet20-percent65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=3 use_biases=yes </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约14小时，拟合精度和泛化精度似乎都难以提高，两者没有分化，泛化在拟合之上。达到0.6后基本没什么变化了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-4-26-high-norm-pca99-vavelet20-percent61</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=39 --input_nodes=39 --low_nums=3 --low_nodes=39 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes</t>
   </si>
 </sst>
 </file>
@@ -1568,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4363,6 +4377,44 @@
       </c>
       <c r="L75" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A76" s="6">
+        <v>43216.930555555555</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="L76" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="319">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1201,6 +1201,21 @@
   </si>
   <si>
     <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=39 --input_nodes=39 --low_nums=3 --low_nodes=39 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-4-27-class14-original-more-percent64</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=92 --input_nodes=92 --low_nums=2 --low_nodes=92 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_in=0.6 --dropout_low=0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes  dropout_in=0.6  dropout_low=0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约41小时，拟合精度和泛化精度接近，运行较久，但是没多少变化和进展。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1582,9 +1597,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D76" workbookViewId="0">
       <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
@@ -4415,6 +4430,44 @@
       </c>
       <c r="L76" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A77" s="6">
+        <v>43217.356944444444</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L77" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="324">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1215,6 +1215,24 @@
   </si>
   <si>
     <t>经过约41小时，拟合精度和泛化精度接近，运行较久，但是没多少变化和进展。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes  dropout_low=0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，原始数据新加指标train-hjxh365-2018-4-16-day-high-clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=74 --input_nodes=74 --low_nums=2 --low_nodes=74 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes --dropout_low=0.6</t>
+  </si>
+  <si>
+    <t>logs-hjxh-365-4-27-high-clear-percent63</t>
+  </si>
+  <si>
+    <t>经过约16小时，开始拟合精度和泛化精度接近，后面已明显分化，泛化精度上不去了，还有所下降。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1597,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D76" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4468,6 +4486,44 @@
       </c>
       <c r="L77" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A78" s="6">
+        <v>43217.958333333336</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="L78" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="329">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1233,6 +1233,25 @@
   </si>
   <si>
     <t>经过约16小时，开始拟合精度和泛化精度接近，后面已明显分化，泛化精度上不去了，还有所下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-4-28-class14-clear-percent59</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练，删除前面不规则数据train-hjxh365-2018-4-16-day-high-clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约24小时，拟合精度和泛化精度较早就分化了，后面泛化精度下降了，原来达到0.62。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=74 --input_nodes=74 --low_nums=2 --low_nodes=74 --low_fun=elu --use_bn_input=True --use_bn_low=True --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes use_bn_input=True use_bn_low=True</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1615,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4524,6 +4543,44 @@
       </c>
       <c r="L78" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A79" s="6">
+        <v>43218.361111111109</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="L79" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="334">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1252,6 +1252,24 @@
   </si>
   <si>
     <t>batch_size=100 low_nums=2 use_biases=yes use_bn_input=True use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-4-30-class14-sequence-clear-percent63</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=128 --input_nodes=128 --low_nums=2 --low_nodes=128 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes --dropout_in=0.6 --dropout_low=0.6</t>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes  dropout_in=0.6 dropout_low=0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约60小时，拟合精度和泛化精度运行一段时间后分化了，后面泛化精度提不高了，拟合精度也不易提高，由于dropout率的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，删除前面不规则数据加上序列train-hjxh365-2018-4-16-day-high-sequence-clear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1634,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4581,6 +4599,44 @@
       </c>
       <c r="L79" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A80" s="6">
+        <v>43220.923611111109</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="L80" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="338">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1270,6 +1270,21 @@
   </si>
   <si>
     <t>最高标签，重新训练，删除前面不规则数据加上序列train-hjxh365-2018-4-16-day-high-sequence-clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-365-4-30-high-clear-percent63</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=74 --input_nodes=74 --low_nums=3 --low_nodes=74 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes --dropout_in=0.5 --dropout_low=0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约63小时，拟合精度在泛化精度之上，但两者一直很接近，由于dropout率太大，拟合精度无法突破，一直是老样子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=3 use_biases=yes dropout_in=0.5 dropout_low=0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1652,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4637,6 +4652,44 @@
       </c>
       <c r="L80" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A81" s="6">
+        <v>43220.965277777781</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="L81" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="344">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1285,6 +1285,28 @@
   </si>
   <si>
     <t>batch_size=100 low_nums=3 use_biases=yes dropout_in=0.5 dropout_low=0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes dropout_in=0.7 dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-old-hjxh-365-5-1-low-clear-percent65</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=20 --input_nums=99 --input_nodes=99 --low_nums=2 --low_nodes=99 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5250 --test_size=1187 --use_biases=yes --dropout_in=0.7 --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>经过约15小时，拟合精度与泛化精度重合，后面似乎还可再有所提高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低标签，重新训练，拿回旧数据训练观察train-gold365-2017-4-27-day-bak</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1667,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:XFD78"/>
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4690,6 +4712,44 @@
       </c>
       <c r="L81" t="s">
         <v>334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A82" s="6">
+        <v>43221.986111111109</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="L82" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="349">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1307,6 +1307,24 @@
   </si>
   <si>
     <t>最低标签，重新训练，拿回旧数据训练观察train-gold365-2017-4-27-day-bak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes   dropout_low=0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=77 --input_nodes=77 --low_nums=2 --low_nodes=77 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes --dropout_low=0.6</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-2-high-class14-clear-pca9999-wavelet60-percent63</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练，删除前面不规则数据PCA及Wavelet处理数据train-hjxh365-2018-4-16-day-high-clear-pca9999-wavelet60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约34小时，拟合精度和泛化精度运行一段时间后分化了，后面泛化精度提不高了，反而下降了，最好达到0.63。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1689,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4750,6 +4768,44 @@
       </c>
       <c r="L82" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A83" s="6">
+        <v>43222.347222222219</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="L83" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="357">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1299,32 +1299,65 @@
     <t>logs-old-hjxh-365-5-1-low-clear-percent65</t>
   </si>
   <si>
+    <t>经过约15小时，拟合精度与泛化精度重合，后面似乎还可再有所提高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低标签，重新训练，拿回旧数据训练观察train-gold365-2017-4-27-day-bak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes   dropout_low=0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=77 --input_nodes=77 --low_nums=2 --low_nodes=77 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes --dropout_low=0.6</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-2-high-class14-clear-pca9999-wavelet60-percent63</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练，删除前面不规则数据PCA及Wavelet处理数据train-hjxh365-2018-4-16-day-high-clear-pca9999-wavelet60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约34小时，拟合精度和泛化精度运行一段时间后分化了，后面泛化精度提不高了，反而下降了，最好达到0.63。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约8小时，拟合精度和泛化精度较为接近，估计后面泛化精度难以提高了，提前终止。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>python3 feed_run.py --output_mode=classes --output_nodes=20 --input_nums=99 --input_nodes=99 --low_nums=2 --low_nodes=99 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5250 --test_size=1187 --use_biases=yes --dropout_in=0.7 --dropout_low=0.7</t>
-  </si>
-  <si>
-    <t>经过约15小时，拟合精度与泛化精度重合，后面似乎还可再有所提高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低标签，重新训练，拿回旧数据训练观察train-gold365-2017-4-27-day-bak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>batch_size=100 low_nums=2 use_biases=yes   dropout_low=0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=77 --input_nodes=77 --low_nums=2 --low_nodes=77 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes --dropout_low=0.6</t>
-  </si>
-  <si>
-    <t>logs-hjxh-2018-5-2-high-class14-clear-pca9999-wavelet60-percent63</t>
-  </si>
-  <si>
-    <t>最高标签，重新训练，删除前面不规则数据PCA及Wavelet处理数据train-hjxh365-2018-4-16-day-high-clear-pca9999-wavelet60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约34小时，拟合精度和泛化精度运行一段时间后分化了，后面泛化精度提不高了，反而下降了，最好达到0.63。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=77 --input_nodes=77 --low_nums=2 --low_nodes=77 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes --dropout_in=0.6 --dropout_low=0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-2-high-class14-clear-pca9999-wavelet60-percent64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes dropout_in=0.6   dropout_low=0.6 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-old-hjxh-365-5-2-low-clear-percent65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=20 --input_nums=99 --input_nodes=99 --low_nums=2 --low_nodes=99 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5250 --test_size=1187 --use_biases=yes --use_bn_input=True --dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes use_bn_input=True dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约12小时，拟合精度与泛化精度分化了，泛化精度下降了，最好达到0.65。2个半小时后就开始分化，泛化下降。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1707,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4746,7 +4779,7 @@
         <v>339</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F82" s="1">
         <v>0.64</v>
@@ -4761,10 +4794,10 @@
         <v>0.94</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L82" t="s">
         <v>340</v>
@@ -4781,10 +4814,10 @@
         <v>275</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F83" s="1">
         <v>0.8</v>
@@ -4799,13 +4832,89 @@
         <v>0.99</v>
       </c>
       <c r="J83" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="L83" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A84" s="6">
+        <v>43222.708333333336</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="K83" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="L83" t="s">
-        <v>346</v>
+      <c r="K84" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="L84" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A85" s="6">
+        <v>43222.847222222219</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="L85" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="362">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1358,6 +1358,25 @@
   </si>
   <si>
     <t>经过约12小时，拟合精度与泛化精度分化了，泛化精度下降了，最好达到0.65。2个半小时后就开始分化，泛化下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，原始数据加PCA及Wavelet处理数据train-hjxh365-2018-4-16-day-high-original-pca99-wavelet20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15小时，拟合精度和泛化精度开始接近，后面分化，泛化精度后来下降，最好达到0.64。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-3-high-original-pca99-wavelet20-percent64</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=96 --input_nodes=96 --low_nums=2 --low_nodes=96 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_input=True   dropout_low=0.8 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1740,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4915,6 +4934,44 @@
       </c>
       <c r="L85" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A86" s="6">
+        <v>43223.375</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="L86" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="366">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1377,6 +1377,20 @@
   </si>
   <si>
     <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_input=True   dropout_low=0.8 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低标签，重新训练，旧数据去掉了序列train-gold365-2017-4-27-day-bak-no-seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=20 --input_nums=39 --input_nodes=39 --low_nums=2 --low_nodes=39 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5250 --test_size=1187 --use_biases=yes --use_bn_input=True --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>logs-old-hjxh-365-5-3-low-clear-no-seq-percent66</t>
+  </si>
+  <si>
+    <t>经过约15小时，拟合精度与泛化精度后面才分化，泛化精度看样子走的比较好，最好达到0.67，去掉序列还好。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1759,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4972,6 +4986,44 @@
       </c>
       <c r="L86" t="s">
         <v>359</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A87" s="6">
+        <v>43223.944444444445</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="L87" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="370">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1392,6 +1392,20 @@
   <si>
     <t>经过约15小时，拟合精度与泛化精度后面才分化，泛化精度看样子走的比较好，最好达到0.67，去掉序列还好。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约23小时，较长时间泛化精度都在拟合精度之上，后面拟合开始超越，泛化波动较大，最好达到0.66。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，经过归一化数据加PCA及Wavelet处理数据train-hjxh365-2018-4-16-day-high-norm-pca99-wavelet20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=96 --input_nodes=96 --low_nums=2 --low_nodes=96 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --dropout_low=0.8</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-4-high-norm-pca99-wavelet20-percent65</t>
   </si>
 </sst>
 </file>
@@ -1773,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5024,6 +5038,44 @@
       </c>
       <c r="L87" t="s">
         <v>364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A88" s="6">
+        <v>43224.375</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="L88" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="427">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1406,6 +1406,224 @@
   </si>
   <si>
     <t>logs-hjxh-2018-5-4-high-norm-pca99-wavelet20-percent65</t>
+  </si>
+  <si>
+    <t>最低标签，重新训练，旧数据加了指标特征去掉了序列train-gold365-2017-4-27-day-low-plus-no-seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约16小时，拟合精度与泛化精度仍未分化，泛化精度看样子走的比较好，最好达到0.67，还未去掉不规则数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=20 --input_nums=93 --input_nodes=93 --low_nums=2 --low_nodes=93 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5200 --test_size=1238 --use_biases=yes --use_bn_input=True --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>logs-old-hjxh-365-5-4-low-plus-no-seq-percent66</t>
+  </si>
+  <si>
+    <t>logs-old-hjxh-365-5-5-low-plus-no-seq-percent66</t>
+  </si>
+  <si>
+    <t>经过约8小时，拟合精度与泛化精度仍未分化，泛化精度看样子走的比较好，最好达到0.67，还未去掉不规则数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=20 --input_nums=93 --input_nodes=93 --low_nums=2 --low_nodes=93 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5200 --test_size=1238 --use_biases=yes --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>经过约8小时，拟合精度与泛化精度刚开始分化，精度上升较快，波动较小。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes use_bn_input=True dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes use_bn_low=True use_bn_input=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约6小时，拟合精度与泛化精度刚开始分化，精度上升更快，波动更小，批量归一化在拟合方面有较大优势，是否可以说精度的方差减小了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=20 --input_nums=93 --input_nodes=93 --low_nums=2 --low_nodes=93 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5200 --test_size=1238 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>logs-old-hjxh-365-5-5-low-plus-no-seq-percent66-2</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=96 --input_nodes=96 --low_nums=2 --low_nodes=96 --low_fun=tanh --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约10小时，精度上升快，泛化效果也不是很好，最好达到0.65。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-6-high-norm-pca99-wavelet20-percent63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-5-high-clear-norm-pca99-wavelet20-percent63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-7-high-clear-norm-pca99-wavelet20-percent61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=96 --input_nodes=96 --low_nums=2 --low_nodes=96 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes  --use_bn_input=True --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=96 --input_nodes=96 --low_nums=2 --low_nodes=96 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes  --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约39小时，精度收敛较快，后面分化，泛化最好达到0.66。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约30小时，精度收敛较快，后面分化，泛化波动较大，最好达到0.66。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_input=True   dropout_low=0.8 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_low=True </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，经过归一化数据加PCA及Wavelet处理数据train-hjxh365-2018-4-16-day-high-clear-norm-pca99-wavelet20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ogs-hjxh-2018-5-8-high-plus-clear-norm-pca9999-wavelet60-percent60</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据加PCA及Wavelet处理数据train-hjxh365-2018-4-16-day-plus-norm-clear-pca9999-wavelet60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约3小时，精度收敛较快，分化也快，泛化似乎难上去了，最好有0.61。提前终止。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-9-high-plus-clear-norm-pca9999-wavelet60-percent61</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=202 --input_nodes=202 --low_nums=2 --low_nodes=202 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes dropout_low=0.8 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约20小时，拟合与泛化精度都难上去，波动较大最好有0.62。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=202 --input_nodes=202 --low_nums=2 --low_nodes=202 --low_fun=elu --one_hot=True --input_fun=linear  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes input_fun=linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约6小时，拟合与泛化精度都难上去，波动较大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-10-high-plus-clear-norm-pca9999-wavelet60-percent62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-9-high-plus-clear-norm-pca9999-wavelet60-percent61-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=202 --input_nodes=202 --low_nums=3 --low_nodes=202 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=3 use_biases=yes input_fun=elu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约17小时，拟合与泛化精度都难上去，波动较大。泛化比前面好一点，也没有多大进步。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=202 --input_nodes=202 --low_nums=2 --low_nodes=202 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes  --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=202 --input_nodes=202 --low_nums=3 --low_nodes=202 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes  --use_bn_input=True  --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约3小时，精度收敛很快，约20分钟泛化达到最好0.62，后来有所下降了，拟合一直上升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-10-high-plus-clear-norm-pca9999-wavelet60-percent60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-plus-norm-clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约4.5小时，精度收敛快，后来泛化精度也难以上升了，拟合慢慢上升，逐步分化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=91 --input_nodes=91 --low_nums=2 --low_nodes=91 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes  --use_bn_input=True  --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-10-high-plus-clear-norm-percent62</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-plus-norm-clear-only-pca9999-wavelet60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约21小时，精度收敛快，逐步分化.泛化精度后面下降，最好达到0.62。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=111 --input_nodes=111 --low_nums=2 --low_nodes=111 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes  --use_bn_input=True  --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-11-high-plus-clear-norm-percent57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-plus-norm-clear-pca9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约27小时，精度收敛快，逐步分化.泛化精度后面下降，最好达到0.63,比前面好一点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=50 --input_nodes=50 --low_nums=2 --low_nodes=50 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes  --use_bn_input=True  --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-12-high-plus-clear-norm-percent59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1787,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5076,6 +5294,576 @@
       </c>
       <c r="L88" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A89" s="6">
+        <v>43224.965277777781</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="L89" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A90" s="6">
+        <v>43224.708333333336</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="L90" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A91" s="6">
+        <v>43225.708333333336</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="L91" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A92" s="6">
+        <v>43225.958333333336</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="L92" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A93" s="6">
+        <v>43226.826388888891</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="L93" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A94" s="6">
+        <v>43225.708333333336</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="L94" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A95" s="6">
+        <v>43227.375</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="L95" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A96" s="6">
+        <v>43228.5</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="L96" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A97" s="6">
+        <v>43229.347222222219</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="L97" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A98" s="6">
+        <v>43229.645833333336</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="L98" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A99" s="6">
+        <v>43230.354166666664</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="L99" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>43230.475694444445</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="L100" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A101" s="6">
+        <v>43230.680555555555</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="L101" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A102" s="6">
+        <v>43231.548611111109</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="L102" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A103" s="6">
+        <v>43232.708333333336</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="L103" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="435">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1624,6 +1624,36 @@
   <si>
     <t>logs-hjxh-2018-5-12-high-plus-clear-norm-percent59</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-plus-norm-clear-wavelet60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约27小时，精度收敛较差.泛化精度后面下降，最好只达到0.58。似乎信息只是噪声。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=61 --input_nodes=61 --low_nums=2 --low_nodes=61 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes  --use_bn_input=True  --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-12-high-plus-clear-norm-wavelet60-percent56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约8小时，精度分化较早.泛化最好达到0.62。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-14-high-check-percent60</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True  --use_bn_low=True</t>
   </si>
 </sst>
 </file>
@@ -2005,10 +2035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="L103" sqref="L103"/>
+    <sheetView tabSelected="1" topLeftCell="K103" workbookViewId="0">
+      <selection activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5864,6 +5894,82 @@
       </c>
       <c r="L103" t="s">
         <v>426</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A104" s="6">
+        <v>43233.875</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="L104" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A105" s="6">
+        <v>43234.722222222219</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="L105" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="440">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1654,6 +1654,24 @@
   </si>
   <si>
     <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True  --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes  use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check-norm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约21小时，开始泛化在拟合之上，运行似乎较好，泛化最好达到0.66，后面拟合超过了，泛化有所下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-5-14-high-norm-percent63</t>
   </si>
 </sst>
 </file>
@@ -2035,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K103" workbookViewId="0">
-      <selection activeCell="K105" sqref="K105"/>
+    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5970,6 +5988,44 @@
       </c>
       <c r="L105" t="s">
         <v>433</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A106" s="6">
+        <v>43234.909722222219</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="L106" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="444">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1672,6 +1672,21 @@
   </si>
   <si>
     <t>logs-hjxh365-5-14-high-norm-percent63</t>
+  </si>
+  <si>
+    <t>经过约15小时，精度分化较早.泛化波动较大，最好达到0.62，比前面没有什么进步。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-15-high-check-percent61</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2053,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6026,6 +6041,44 @@
       </c>
       <c r="L106" t="s">
         <v>439</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A107" s="6">
+        <v>43235.340277777781</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="L107" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="451">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1642,10 +1642,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经过约8小时，精度分化较早.泛化最好达到0.62。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1686,6 +1682,37 @@
   </si>
   <si>
     <t>batch_size=100 low_nums=2 use_biases=yes dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标未归一化数据train-hjxh365-2018-4-16-day-high-check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15.5小时，泛化一直在拟合之上，似乎运行较好，最好达到0.66，还没有分化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-5-15-high-norm-check-percent65</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约24小时，精度分化较早.波动不大，最好达到0.63，比前面没有明显进步。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes use_bn_input=True dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True  --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-16-high-check-percent61</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2068,9 +2095,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
       <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
@@ -5981,7 +6008,7 @@
         <v>328</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="F105" s="1">
         <v>0.67</v>
@@ -5996,13 +6023,13 @@
         <v>1</v>
       </c>
       <c r="J105" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="L105" t="s">
         <v>432</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="L105" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="82.5" customHeight="1">
@@ -6016,10 +6043,10 @@
         <v>275</v>
       </c>
       <c r="D106" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="F106" s="1">
         <v>0.68</v>
@@ -6034,13 +6061,13 @@
         <v>0.96</v>
       </c>
       <c r="J106" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="L106" t="s">
         <v>438</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="L106" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="82.5" customHeight="1">
@@ -6054,10 +6081,10 @@
         <v>275</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="F107" s="1">
         <v>0.68</v>
@@ -6072,13 +6099,89 @@
         <v>0.99</v>
       </c>
       <c r="J107" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="L107" t="s">
         <v>440</v>
       </c>
-      <c r="K107" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="L107" t="s">
-        <v>441</v>
+    </row>
+    <row r="108" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A108" s="6">
+        <v>43235.972222222219</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="L108" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A109" s="6">
+        <v>43236.347222222219</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L109" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="456">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1713,6 +1713,25 @@
   </si>
   <si>
     <t>logs-hjxh-2018-5-16-high-check-percent61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标未归一化数据,删除前面不规则数据train-hjxh365-2018-4-16-day-high-check-clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约8小时，精度分化较早.波动不大，最好达到0.63，比没删除数据好像要好点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-16-high-check-clear-percent62</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes  --use_bn_low=True  --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes dropout_low=0.8 use_bn_low=True</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2095,10 +2114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6182,6 +6201,44 @@
       </c>
       <c r="L109" t="s">
         <v>450</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A110" s="6">
+        <v>43236.75</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="L110" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="462">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1732,6 +1732,29 @@
   </si>
   <si>
     <t>batch_size=100 low_nums=2 use_biases=yes dropout_low=0.8 use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约50小时，精度分化较晚.波动不大，最好达到0.65。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-19-high-check-clear-percent63</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check-norm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标归一化数据,删除前面不规则数据train-hjxh365-2018-4-16-day-high-check-norm-clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes  --use_bn_input=True  --dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_input=True dropout_low=0.7 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2114,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6141,7 +6164,7 @@
         <v>448</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="F108" s="1">
         <v>0.64</v>
@@ -6239,6 +6262,44 @@
       </c>
       <c r="L110" t="s">
         <v>453</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A111" s="6">
+        <v>43239.381944444445</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="L111" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="466">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1756,6 +1756,20 @@
   <si>
     <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_input=True dropout_low=0.7 </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-norm-check2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约5小时，开始泛化在拟合之上，运行似乎较好，泛化最好只达到0.64，拟合较快超过了，泛化难再升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-5-20-high-norm-check2-percent63</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=86 --input_nodes=86 --low_nums=2 --low_nodes=86 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_low=True</t>
   </si>
 </sst>
 </file>
@@ -2137,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6300,6 +6314,44 @@
       </c>
       <c r="L111" t="s">
         <v>457</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A112" s="6">
+        <v>43240.888888888891</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="L112" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="470">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1770,6 +1770,21 @@
   </si>
   <si>
     <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=86 --input_nodes=86 --low_nums=2 --low_nodes=86 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-21-high-check-clear-percent63</t>
+  </si>
+  <si>
+    <t>经过约46小时，精度一直没怎么分化.波动不大，泛化最好达到0.64。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes  --use_bn_input=True --use_bn_low=True  --dropout_in=0.8  --dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_input=True use_bn_low=True dropout_in=0.8 dropout_low=0.7 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2151,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6352,6 +6367,44 @@
       </c>
       <c r="L112" t="s">
         <v>464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A113" s="6">
+        <v>43241.340277777781</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="L113" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="474">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1784,6 +1784,21 @@
   </si>
   <si>
     <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_input=True use_bn_low=True dropout_in=0.8 dropout_low=0.7 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-5-21-high-norm-check2-percent63</t>
+  </si>
+  <si>
+    <t>经过约16小时，开始泛化在拟合之上，泛化最好只达到0.64，拟合慢慢超过了，泛化难再升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=86 --input_nodes=86 --low_nums=2 --low_nodes=86 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes  use_bn_input=True dropout_low=0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2166,10 +2181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="D110" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6405,6 +6420,44 @@
       </c>
       <c r="L113" t="s">
         <v>466</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A114" s="6">
+        <v>43241.958333333336</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="L114" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="478">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1799,6 +1799,20 @@
   </si>
   <si>
     <t>batch_size=100 low_nums=2 use_biases=yes  use_bn_input=True dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约21小时，开始泛化在拟合之上，泛化最好只达到0.64，拟合开始超过了，泛化难再升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-22-high-check2-clear-percent63</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=86 --input_nodes=86 --low_nums=2 --low_nodes=86 --low_fun=relu --one_hot=True --input_fun=relu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --use_bn_low=True  --dropout_in=0.8  --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes use_bn_input=True use_bn_low=True dropout_in=0.8 dropout_low=0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2181,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D110" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="C113" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6458,6 +6472,44 @@
       </c>
       <c r="L114" t="s">
         <v>470</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A115" s="6">
+        <v>43242.375</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="L115" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="481">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1814,6 +1814,16 @@
   <si>
     <t>batch_size=100 low_nums=2 use_biases=yes use_bn_input=True use_bn_low=True dropout_in=0.8 dropout_low=0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15小时，开始泛化在拟合之上，泛化最好只达到0.64，拟合还没有超过，泛化难再升。看来用sigmoid也没什么改进。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-5-22-high-norm-check2-percent63</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=86 --input_nodes=86 --low_nums=2 --low_nodes=86 --low_fun=sigmoid --one_hot=True --input_fun=sigmoid --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --dropout_low=0.7</t>
   </si>
 </sst>
 </file>
@@ -2195,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C113" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6510,6 +6520,44 @@
       </c>
       <c r="L115" t="s">
         <v>475</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A116" s="6">
+        <v>43242.944444444445</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="L116" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="484">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1824,6 +1824,16 @@
   </si>
   <si>
     <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=86 --input_nodes=86 --low_nums=2 --low_nodes=86 --low_fun=sigmoid --one_hot=True --input_fun=sigmoid --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>经过约23小时，泛化较长时间在拟合之上，慢慢分化，最好只达到0.64。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-23-high-check-norm-percent63</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=relu --one_hot=True --input_fun=relu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --use_bn_low=True  --dropout_in=0.8  --dropout_low=0.7</t>
   </si>
 </sst>
 </file>
@@ -2205,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="K116" sqref="K116"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6558,6 +6568,44 @@
       </c>
       <c r="L116" t="s">
         <v>479</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A117" s="6">
+        <v>43243.361111111109</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="L117" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="488">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1834,6 +1834,20 @@
   </si>
   <si>
     <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=relu --one_hot=True --input_fun=relu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --use_bn_low=True  --dropout_in=0.8  --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>经过约15小时，泛化一直在拟合之上，最好达到0.65。后面再训练。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=sigmoid --one_hot=True --input_fun=sigmoid --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes use_bn_input=True dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-5-23-high-norm-check-percent64</t>
   </si>
 </sst>
 </file>
@@ -2215,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="K116" workbookViewId="0">
+      <selection activeCell="L118" sqref="L118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6606,6 +6620,44 @@
       </c>
       <c r="L117" t="s">
         <v>482</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A118" s="6">
+        <v>43243.958333333336</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="L118" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="491">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1848,6 +1848,16 @@
   </si>
   <si>
     <t>logs-hjxh365-5-23-high-norm-check-percent64</t>
+  </si>
+  <si>
+    <t>经过约24小时，泛化一直在拟合之上，最好只达到0.65。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-24-high-check-norm-percent64</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=tanh --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --use_bn_low=True  --dropout_in=0.8  --dropout_low=0.7</t>
   </si>
 </sst>
 </file>
@@ -2229,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K116" workbookViewId="0">
-      <selection activeCell="L118" sqref="L118"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6658,6 +6668,44 @@
       </c>
       <c r="L118" t="s">
         <v>487</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A119" s="6">
+        <v>43244.368055555555</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="L119" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="494">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1858,6 +1858,17 @@
   </si>
   <si>
     <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=tanh --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --use_bn_low=True  --dropout_in=0.8  --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>最高标签，接着上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check-norm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15小时，泛化仍在拟合之上，最好达到0.66。后面再训练。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-5-24-high-norm-check-percent65</t>
   </si>
 </sst>
 </file>
@@ -2239,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="K116" workbookViewId="0">
+      <selection activeCell="L120" sqref="L120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6706,6 +6717,44 @@
       </c>
       <c r="L119" t="s">
         <v>489</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A120" s="6">
+        <v>43244.930555555555</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="L120" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="498">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1869,6 +1869,20 @@
   </si>
   <si>
     <t>logs-hjxh365-5-24-high-norm-check-percent65</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-5-25-high-norm-check-percent66</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=sigmoid --one_hot=True --input_fun=sigmoid --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True</t>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes use_bn_input=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15小时，泛化仍在拟合之上，最好达到0.67。拟合有所提高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2250,10 +2264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K116" workbookViewId="0">
-      <selection activeCell="L120" sqref="L120"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6755,6 +6769,44 @@
       </c>
       <c r="L120" t="s">
         <v>493</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A121" s="6">
+        <v>43245.972222222219</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="L121" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="502">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1882,6 +1882,20 @@
   </si>
   <si>
     <t>经过约15小时，泛化仍在拟合之上，最好达到0.67。拟合有所提高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-26-high-check-symmetry-percent63</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check-symmetry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约53小时，泛化较长时间在拟合之上，后面拟合超过，泛化有所下降，但最好达到0.67，情况似乎比没有移动到1-1对称区间要好些。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2264,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="J121" sqref="J121"/>
+      <selection activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6807,6 +6821,44 @@
       </c>
       <c r="L121" t="s">
         <v>494</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A122" s="6">
+        <v>43246.708333333336</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="L122" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="506">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1896,6 +1896,20 @@
   </si>
   <si>
     <t>经过约53小时，泛化较长时间在拟合之上，后面拟合超过，泛化有所下降，但最好达到0.67，情况似乎比没有移动到1-1对称区间要好些。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check-symmetry10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-5-26-high-symmetry10-check-percent58</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>经过约13小时，开始泛化与拟合交叉，拟合较快超过，后泛化有所下降，最好只达到0.62，1-1对称区间放大了10倍并不好。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2278,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="J122" sqref="J122"/>
+      <selection activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6859,6 +6873,44 @@
       </c>
       <c r="L122" t="s">
         <v>498</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A123" s="6">
+        <v>43246.895833333336</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="L123" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="510">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1910,6 +1910,21 @@
   </si>
   <si>
     <t>经过约13小时，开始泛化与拟合交叉，拟合较快超过，后泛化有所下降，最好只达到0.62，1-1对称区间放大了10倍并不好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约12小时，泛化一直在拟合之上，最好达到0.66，还要继续训练观察。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-norm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=89 --input_nodes=89 --low_nums=2 --low_nodes=89 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-5-27-high-norm-check1-percent65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2292,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="J123" sqref="J123"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="L124" sqref="L124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6911,6 +6926,44 @@
       </c>
       <c r="L123" t="s">
         <v>503</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A124" s="6">
+        <v>43247.930555555555</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="L124" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="513">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1926,6 +1926,17 @@
   <si>
     <t>logs-hjxh365-5-27-high-norm-check1-percent65</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check-symmetry2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约39小时，泛化较长时间在拟合之上，后面拟合超过，泛化未下降，最好达到0.67，情况和移动到1-1对称区间差不多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-28-high-check-symmetry2-percent66</t>
   </si>
 </sst>
 </file>
@@ -2307,10 +2318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="L124" sqref="L124"/>
+      <selection activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6964,6 +6975,44 @@
       </c>
       <c r="L124" t="s">
         <v>509</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A125" s="6">
+        <v>43248.347222222219</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="L125" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="516">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1937,6 +1937,17 @@
   </si>
   <si>
     <t>logs-hjxh-2018-5-28-high-check-symmetry2-percent66</t>
+  </si>
+  <si>
+    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-norm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约16.5小时，泛化与拟合重叠，最好达到0.67，难再提高了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-5-29-high-norm-check1-percent64</t>
   </si>
 </sst>
 </file>
@@ -2318,10 +2329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="K125" sqref="K125"/>
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7013,6 +7024,44 @@
       </c>
       <c r="L125" t="s">
         <v>512</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A126" s="6">
+        <v>43249.006944444445</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="L126" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="520">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1948,6 +1948,20 @@
   </si>
   <si>
     <t>logs-hjxh365-5-29-high-norm-check1-percent64</t>
+  </si>
+  <si>
+    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1d2-norm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约86小时，开始泛化在拟合之上，后面拟合超过、泛化下降，最好达到0.67。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=88 --input_nodes=88 --low_nums=2 --low_nodes=88 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-31-high-check1d2-percent62</t>
   </si>
 </sst>
 </file>
@@ -2329,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7062,6 +7076,44 @@
       </c>
       <c r="L126" t="s">
         <v>515</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A127" s="6">
+        <v>43251.972222222219</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="L127" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="527">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1962,6 +1962,31 @@
   </si>
   <si>
     <t>logs-hjxh-2018-5-31-high-check1d2-percent62</t>
+  </si>
+  <si>
+    <t>经过约15小时，泛化一直在拟合之上，最好达到0.66。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-symmetry2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-15-high-symmetry2-check1-percent64</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=89 --input_nodes=89 --low_nums=2 --low_nodes=89 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-16-high-symmetry2-check1-percent64</t>
+  </si>
+  <si>
+    <t>经过约2.4小时，泛化一直在拟合之上，最好达到0.66。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes use_bn_row=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2343,10 +2368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7114,6 +7139,82 @@
       </c>
       <c r="L127" t="s">
         <v>519</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A128" s="6">
+        <v>43266.958333333336</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="L128" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A129" s="6">
+        <v>43267.5625</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="L129" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="531">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1981,12 +1981,26 @@
     <t>logs-hjxh365-6-16-high-symmetry2-check1-percent64</t>
   </si>
   <si>
-    <t>经过约2.4小时，泛化一直在拟合之上，最好达到0.66。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>batch_size=100 low_nums=2 use_biases=yes use_bn_row=True</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约2.4小时，收敛很快，拟合开始超过了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约1.4小时，收敛很快，泛化提不高了，最好为0.63。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-symmetry2-wavelet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=111 --input_nodes=111 --low_nums=2 --low_nodes=111 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-16-high-symmetry2-check1-wavelet-percent62</t>
   </si>
 </sst>
 </file>
@@ -2368,10 +2382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="L130" sqref="L130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7190,7 +7204,7 @@
         <v>275</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>521</v>
@@ -7208,13 +7222,51 @@
         <v>0.91</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K129" s="4" t="s">
         <v>523</v>
       </c>
       <c r="L129" t="s">
         <v>524</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A130" s="6">
+        <v>43267.729166666664</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="L130" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="535">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2001,6 +2001,20 @@
   </si>
   <si>
     <t>logs-hjxh365-6-16-high-symmetry2-check1-wavelet-percent62</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-16-high-check1-symmetry2-clear-percent64</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=89 --input_nodes=89 --low_nums=2 --low_nodes=89 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes  --use_bn_input=True --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-symmetry2-clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约27小时，拟合超过了，泛化提不高了，最好只达到0.65。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2382,10 +2396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="L130" sqref="L130"/>
+      <selection activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7267,6 +7281,44 @@
       </c>
       <c r="L130" t="s">
         <v>530</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A131" s="6">
+        <v>43267.854166666664</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="L131" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="538">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2015,6 +2015,17 @@
   <si>
     <t>经过约27小时，拟合超过了，泛化提不高了，最好只达到0.65。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约5小时，泛化好一点，也提不太高，最好为0.65。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-symmetry2-waveletpca99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-16-high-symmetry2-check1-wavepca99-percent63</t>
   </si>
 </sst>
 </file>
@@ -2396,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="J131" sqref="J131"/>
+      <selection activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7319,6 +7330,44 @@
       </c>
       <c r="L131" t="s">
         <v>531</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A132" s="6">
+        <v>43267.972222222219</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="L132" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="551">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2026,6 +2026,52 @@
   </si>
   <si>
     <t>logs-hjxh365-6-16-high-symmetry2-check1-wavepca99-percent63</t>
+  </si>
+  <si>
+    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-symmetry2-pca99-waveletpca99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约4小时，泛化效果不好，也提不太高，最好为0.6。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=19 --input_nodes=19 --low_nums=2 --low_nodes=19 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-17-high-symmetry2-check1-pca99-wavepca99-percent58</t>
+  </si>
+  <si>
+    <t>经过约7.5小时，泛化还在拟合之上，最好为0.66。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-17-high-symmetry2-check1-percent64</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=89 --input_nodes=89 --low_nums=2 --low_nodes=89 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_low=0.9</t>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes use_bn_input=True dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes dropout_low=0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约12小时，泛化还在拟合之上，最好为0.66。需要继续训练观察。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-18-high-symmetry2-check1-percent65</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=89 --input_nodes=89 --low_nums=2 --low_nodes=89 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes</t>
   </si>
 </sst>
 </file>
@@ -2407,10 +2453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="L132" sqref="L132"/>
+    <sheetView tabSelected="1" topLeftCell="K131" workbookViewId="0">
+      <selection activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7305,7 +7351,7 @@
         <v>275</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>355</v>
+        <v>545</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>533</v>
@@ -7368,6 +7414,120 @@
       </c>
       <c r="L132" t="s">
         <v>537</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A133" s="6">
+        <v>43268.618055555555</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="L133" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A134" s="6">
+        <v>43268.944444444445</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="L134" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A135" s="6">
+        <v>43269.895833333336</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="L135" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="555">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2072,6 +2072,20 @@
   </si>
   <si>
     <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=89 --input_nodes=89 --low_nums=2 --low_nodes=89 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-19-high-check1-symmetry2-wave20pca9999-percent60</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=94 --input_nodes=94 --low_nums=2 --low_nodes=94 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --dropout_low=0.7</t>
+  </si>
+  <si>
+    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-plus-check1-symmetry2-wave20pca9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约59小时，泛化效果不好，也提不太高，最好为0.63,拟合上升，泛化下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2453,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K131" workbookViewId="0">
-      <selection activeCell="K135" sqref="K135"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7528,6 +7542,44 @@
       </c>
       <c r="L135" t="s">
         <v>549</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A136" s="6">
+        <v>43270.340277777781</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F136" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="L136" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="556">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2077,14 +2077,19 @@
     <t>logs-hjxh-2018-6-19-high-check1-symmetry2-wave20pca9999-percent60</t>
   </si>
   <si>
+    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-plus-check1-symmetry2-wave20pca9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约59小时，泛化效果不好，也提不太高，最好为0.63,拟合上升，泛化下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=94 --input_nodes=94 --low_nums=2 --low_nodes=94 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True --dropout_low=0.7</t>
-  </si>
-  <si>
-    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-plus-check1-symmetry2-wave20pca9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约59小时，泛化效果不好，也提不太高，最好为0.63,拟合上升，泛化下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes use_bn_row=True dropout_low=0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7555,10 +7560,10 @@
         <v>275</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F136" s="1">
         <v>0.67</v>
@@ -7573,10 +7578,10 @@
         <v>0.98</v>
       </c>
       <c r="J136" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="K136" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="L136" t="s">
         <v>551</v>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="559">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1950,10 +1950,6 @@
     <t>logs-hjxh365-5-29-high-norm-check1-percent64</t>
   </si>
   <si>
-    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1d2-norm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经过约86小时，开始泛化在拟合之上，后面拟合超过、泛化下降，最好达到0.67。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1993,10 +1989,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-symmetry2-wavelet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=111 --input_nodes=111 --low_nums=2 --low_nodes=111 --low_fun=elu --one_hot=True --input_fun=elu --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_low=True</t>
   </si>
   <si>
@@ -2009,10 +2001,6 @@
     <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=89 --input_nodes=89 --low_nums=2 --low_nodes=89 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1280 --use_biases=yes  --use_bn_input=True --dropout_low=0.7</t>
   </si>
   <si>
-    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-symmetry2-clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经过约27小时，拟合超过了，泛化提不高了，最好只达到0.65。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2021,17 +2009,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-symmetry2-waveletpca99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>logs-hjxh365-6-16-high-symmetry2-check1-wavepca99-percent63</t>
   </si>
   <si>
-    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-symmetry2-pca99-waveletpca99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经过约4小时，泛化效果不好，也提不太高，最好为0.6。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2077,10 +2057,6 @@
     <t>logs-hjxh-2018-6-19-high-check1-symmetry2-wave20pca9999-percent60</t>
   </si>
   <si>
-    <t>最高标签，继续上一次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-plus-check1-symmetry2-wave20pca9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经过约59小时，泛化效果不好，也提不太高，最好为0.63,拟合上升，泛化下降。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2090,6 +2066,42 @@
   </si>
   <si>
     <t>batch_size=100 low_nums=2 use_biases=yes use_bn_row=True dropout_low=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约13小时，泛化还在拟合之上，最好为0.66。需要继续训练观察。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1d2-norm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-symmetry2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-symmetry2-wavelet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-symmetry2-clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-symmetry2-waveletpca99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-check1-symmetry2-pca99-waveletpca99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-plus-check1-symmetry2-wave20pca9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-19-high-symmetry2-check1-percent65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2472,10 +2484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L136"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7221,7 +7233,7 @@
         <v>355</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="F127" s="1">
         <v>0.68</v>
@@ -7236,13 +7248,13 @@
         <v>0.98</v>
       </c>
       <c r="J127" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="K127" s="4" t="s">
+      <c r="L127" t="s">
         <v>518</v>
-      </c>
-      <c r="L127" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="82.5" customHeight="1">
@@ -7259,7 +7271,7 @@
         <v>355</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="F128" s="1">
         <v>0.63</v>
@@ -7274,13 +7286,13 @@
         <v>0.95</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K128" s="4" t="s">
         <v>508</v>
       </c>
       <c r="L128" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="82.5" customHeight="1">
@@ -7294,10 +7306,10 @@
         <v>275</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="F129" s="1">
         <v>0.64</v>
@@ -7312,13 +7324,13 @@
         <v>0.91</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K129" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="L129" t="s">
         <v>523</v>
-      </c>
-      <c r="L129" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="82.5" customHeight="1">
@@ -7332,10 +7344,10 @@
         <v>275</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="F130" s="1">
         <v>0.63</v>
@@ -7350,13 +7362,13 @@
         <v>0.96</v>
       </c>
       <c r="J130" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="K130" s="4" t="s">
-        <v>529</v>
-      </c>
       <c r="L130" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="82.5" customHeight="1">
@@ -7370,10 +7382,10 @@
         <v>275</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="F131" s="1">
         <v>0.64</v>
@@ -7388,13 +7400,13 @@
         <v>0.96</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L131" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="82.5" customHeight="1">
@@ -7408,10 +7420,10 @@
         <v>275</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="F132" s="1">
         <v>0.64</v>
@@ -7426,13 +7438,13 @@
         <v>0.97</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K132" s="4" t="s">
         <v>434</v>
       </c>
       <c r="L132" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="82.5" customHeight="1">
@@ -7446,10 +7458,10 @@
         <v>275</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="F133" s="1">
         <v>0.57999999999999996</v>
@@ -7464,13 +7476,13 @@
         <v>0.89</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L133" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="82.5" customHeight="1">
@@ -7484,10 +7496,10 @@
         <v>275</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="F134" s="1">
         <v>0.63</v>
@@ -7502,13 +7514,13 @@
         <v>0.91</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="L134" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="82.5" customHeight="1">
@@ -7522,10 +7534,10 @@
         <v>275</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="F135" s="1">
         <v>0.62</v>
@@ -7540,13 +7552,13 @@
         <v>0.92</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="L135" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="82.5" customHeight="1">
@@ -7560,10 +7572,10 @@
         <v>275</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F136" s="1">
         <v>0.67</v>
@@ -7578,13 +7590,51 @@
         <v>0.98</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="L136" t="s">
-        <v>551</v>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A137" s="6">
+        <v>43270.944444444445</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="L137" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="561">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2103,6 +2103,13 @@
   <si>
     <t>logs-hjxh365-6-19-high-symmetry2-check1-percent65</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约14小时，泛化与拟合开始重叠，最好为0.66。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-20-high-symmetry2-check1-percent64</t>
   </si>
 </sst>
 </file>
@@ -2484,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7635,6 +7642,44 @@
       </c>
       <c r="L137" t="s">
         <v>558</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A138" s="6">
+        <v>43271.916666666664</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="L138" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="568">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2110,6 +2110,32 @@
   </si>
   <si>
     <t>logs-hjxh365-6-20-high-symmetry2-check1-percent64</t>
+  </si>
+  <si>
+    <t>经过约41小时，泛化一直在拟合之上，最好为0.65。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-21-high-check-symmetry-percent64</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-trim-symmetry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-21-high-trim-symmetry-percent61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=40 --input_nodes=40 --low_nums=2 --low_nodes=40 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约5小时，泛化一直在拟合之上，最好为0.63。只是短时间观察一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2491,10 +2517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="L138" sqref="L138"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7680,6 +7706,82 @@
       </c>
       <c r="L138" t="s">
         <v>560</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A139" s="6">
+        <v>43272.055555555555</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F139" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="L139" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A140" s="6">
+        <v>43272.631944444445</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F140" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="L140" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="572">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2136,6 +2136,20 @@
   <si>
     <t>经过约5小时，泛化一直在拟合之上，最好为0.63。只是短时间观察一下。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-21-high-symmetry2-trim-percent61</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-trim-symmetry2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约1小时，泛化一直在拟合之上，最好为0.63。只是短时间观察一下，还需继续训练。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=40 --input_nodes=40 --low_nums=2 --low_nodes=40 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes</t>
   </si>
 </sst>
 </file>
@@ -2517,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+      <selection activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7782,6 +7796,44 @@
       </c>
       <c r="L140" t="s">
         <v>565</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A141" s="6">
+        <v>43272.944444444445</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F141" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="L141" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="580">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2150,6 +2150,35 @@
   </si>
   <si>
     <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=40 --input_nodes=40 --low_nums=2 --low_nodes=40 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-22-high-trim-symmetry-percent64</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-trim-symmetry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=40 --input_nodes=40 --low_nums=2 --low_nodes=40 --low_fun=elu --one_hot=True --input_fun=elu  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约17小时，开始泛化在拟合之上，最好为0.65，后来拟合超过。泛化没怎么下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-trim-ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=40 --input_nodes=40 --low_nums=2 --low_nodes=40 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-22-high-trim-ori-percent65</t>
+  </si>
+  <si>
+    <t>经过约6小时，开始泛化在拟合之上，最好为0.67，后来拟合超过。泛化没怎么下降。运行情况良好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2531,10 +2560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="K141" sqref="K141"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7834,6 +7863,82 @@
       </c>
       <c r="L141" t="s">
         <v>568</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A142" s="6">
+        <v>43273.375</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F142" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="L142" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A143" s="6">
+        <v>43273.638888888891</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F143" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="L143" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="587">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2179,6 +2179,31 @@
   <si>
     <t>经过约6小时，开始泛化在拟合之上，最好为0.67，后来拟合超过。泛化没怎么下降。运行情况良好。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-trim-symmetry2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约14小时，泛化一直在拟合之上，最好为0.63。还是很难收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-22-high-symmetry2-trim-percent62</t>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-ori-check1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约3.5小时，拟合很快超过泛化，泛化最好为0.64。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-23-high-ori-check1-percent63</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=89 --input_nodes=89 --low_nums=2 --low_nodes=89 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
   </si>
 </sst>
 </file>
@@ -2560,10 +2585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="B141" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7939,6 +7964,82 @@
       </c>
       <c r="L143" t="s">
         <v>578</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A144" s="6">
+        <v>43273.923611111109</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F144" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="L144" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A145" s="6">
+        <v>43274.534722222219</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="L145" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="591">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2204,6 +2204,20 @@
   </si>
   <si>
     <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=89 --input_nodes=89 --low_nums=2 --low_nodes=89 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-23-high-ori-trim-percent63</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=40 --input_nodes=40 --low_nums=2 --low_nodes=40 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_in=0.8 --dropout_low=0.8</t>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-trim-ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约9小时，拟合一直与泛化重叠，泛化最好为0.65。拟合还没有超过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2585,10 +2599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L145"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B141" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8040,6 +8054,44 @@
       </c>
       <c r="L145" t="s">
         <v>585</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A146" s="6">
+        <v>43274.923611111109</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F146" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="I146" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="K146" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="L146" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="599">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2217,6 +2217,36 @@
   </si>
   <si>
     <t>经过约9小时，拟合一直与泛化重叠，泛化最好为0.65。拟合还没有超过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约33小时，拟合在泛化之上，但相差不大，上升慢，泛化最好为0.65。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-24-high-ori-check1-percent64</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=89 --input_nodes=89 --low_nums=2 --low_nodes=89 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes dropout_in=0.8 dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-23-high-ori-check-percent63</t>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-ori-check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约18小时，拟合较快就超过了泛化，泛化最好为0.65。拟合后面一直领先。泛化有所下降。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2599,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L146"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="J146" sqref="J146"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8092,6 +8122,82 @@
       </c>
       <c r="L146" t="s">
         <v>587</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A147" s="6">
+        <v>43274.423611111109</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H147" s="1">
+        <v>1</v>
+      </c>
+      <c r="I147" s="1">
+        <v>1</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="L147" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A148" s="6">
+        <v>43275.826388888891</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F148" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="L148" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="603">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2248,6 +2248,21 @@
   <si>
     <t>经过约18小时，拟合较快就超过了泛化，泛化最好为0.65。拟合后面一直领先。泛化有所下降。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-trim16-ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约14.5小时，泛化一直在拟合之上，泛化最好为0.67。后面还可以再提高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-24-high-ori-trim16-percent67</t>
   </si>
 </sst>
 </file>
@@ -2629,10 +2644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="J147" sqref="J147"/>
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8198,6 +8213,44 @@
       </c>
       <c r="L148" t="s">
         <v>592</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A149" s="6">
+        <v>43275.972222222219</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="L149" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="606">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2250,10 +2250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最高标签，接着上次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-trim16-ori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经过约14.5小时，泛化一直在拟合之上，泛化最好为0.67。后面还可以再提高。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2263,6 +2259,21 @@
   </si>
   <si>
     <t>logs-hjxh365-6-24-high-ori-trim16-percent67</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-25-high-ori-trim16-percent65</t>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练train-hjxh365-2018-4-16-day-high-trim16-ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-trim16-ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15.5小时，泛化与拟合重叠，泛化最好为0.68。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2644,10 +2655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+      <selection activeCell="J150" sqref="J150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8229,7 +8240,7 @@
         <v>496</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="F149" s="1">
         <v>0.64</v>
@@ -8244,12 +8255,50 @@
         <v>0.94</v>
       </c>
       <c r="J149" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="K149" s="4" t="s">
+      <c r="L149" t="s">
         <v>601</v>
       </c>
-      <c r="L149" t="s">
+    </row>
+    <row r="150" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A150" s="6">
+        <v>43276.965277777781</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="L150" t="s">
         <v>602</v>
       </c>
     </row>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="610">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2273,6 +2273,21 @@
   </si>
   <si>
     <t>经过约15.5小时，泛化与拟合重叠，泛化最好为0.68。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-26-high-ori-trim16-percent62</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-ori-trim16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约30小时，泛化与拟合重叠，泛化最好为0.65。难以收敛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2655,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="J150" sqref="J150"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8300,6 +8315,44 @@
       </c>
       <c r="L150" t="s">
         <v>602</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A151" s="6">
+        <v>43277.354166666664</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I151" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="L151" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="614">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2279,15 +2279,29 @@
     <t>logs-hjxh-2018-6-26-high-ori-trim16-percent62</t>
   </si>
   <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约30小时，泛化与拟合重叠，泛化最好为0.65。难以收敛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-26-high-ori-trim10-percent66</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True</t>
+  </si>
+  <si>
+    <t>经过约15.5小时，泛化一直在拟合之上，泛化最好为0.67。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-ori-trim16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约30小时，泛化与拟合重叠，泛化最好为0.65。难以收敛</t>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-trim10-ori</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2670,10 +2684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="E151" sqref="E151"/>
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8331,7 +8345,7 @@
         <v>594</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="F151" s="1">
         <v>0.62</v>
@@ -8346,13 +8360,51 @@
         <v>0.84</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L151" t="s">
         <v>606</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A152" s="6">
+        <v>43277.951388888891</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G152" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I152" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="L152" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="618">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2303,6 +2303,20 @@
   <si>
     <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-trim10-ori</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-ori-trim4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True</t>
+  </si>
+  <si>
+    <t>经过约32.5小时，泛化与拟合重叠，泛化最好为0.66。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-27-high-ori-trim4-percent66</t>
   </si>
 </sst>
 </file>
@@ -2684,10 +2698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+      <selection activeCell="L153" sqref="L153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8405,6 +8419,44 @@
       </c>
       <c r="L152" t="s">
         <v>609</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A153" s="6">
+        <v>43278.722222222219</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G153" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I153" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="L153" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="621">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2317,6 +2317,17 @@
   </si>
   <si>
     <t>logs-hjxh-2018-6-27-high-ori-trim4-percent66</t>
+  </si>
+  <si>
+    <t>经过约15.5小时，泛化一直在拟合之上，泛化最好为0.64。难以收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-27-high-ori-trim10-percent62</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_in=0.8 --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2698,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L153"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="L153" sqref="L153"/>
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8457,6 +8468,44 @@
       </c>
       <c r="L153" t="s">
         <v>617</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A154" s="6">
+        <v>43278.951388888891</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="L154" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="624">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2328,6 +2328,16 @@
   <si>
     <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_in=0.8 --dropout_low=0.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约24小时，泛化与拟合重叠，泛化最好为0.63。难以收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-28-high-ori-trim4-percent62</t>
   </si>
 </sst>
 </file>
@@ -2709,10 +2719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="E154" sqref="E154"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8506,6 +8516,44 @@
       </c>
       <c r="L154" t="s">
         <v>619</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A155" s="6">
+        <v>43279.743055555555</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="L155" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="627">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2338,6 +2338,17 @@
   </si>
   <si>
     <t>logs-hjxh-2018-6-28-high-ori-trim4-percent62</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-28-high-ori-trim10-percent66</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约16小时，泛化与拟合重叠，泛化最好为0.67。难以收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2719,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8554,6 +8565,44 @@
       </c>
       <c r="L155" t="s">
         <v>623</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A156" s="6">
+        <v>43279.979166666664</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="K156" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="L156" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="630">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2348,6 +2348,17 @@
   </si>
   <si>
     <t>经过约16小时，泛化与拟合重叠，泛化最好为0.67。难以收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-29-high-ori-trim4-percent65</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约22小时，泛化与拟合重叠，泛化最好为0.66。难以收敛。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2730,10 +2741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L156"/>
+  <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="J156" sqref="J156"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8603,6 +8614,44 @@
       </c>
       <c r="L156" t="s">
         <v>624</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A157" s="6">
+        <v>43280.680555555555</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="L157" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="633">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2360,6 +2360,16 @@
   <si>
     <t>经过约22小时，泛化与拟合重叠，泛化最好为0.66。难以收敛。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15小时，泛化与拟合重叠，泛化最好为0.67。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-29-high-ori-trim16-percent65</t>
   </si>
 </sst>
 </file>
@@ -2741,10 +2751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L157"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="J157" sqref="J157"/>
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8652,6 +8662,44 @@
       </c>
       <c r="L157" t="s">
         <v>627</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A158" s="6">
+        <v>43280.951388888891</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="K158" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="L158" t="s">
+        <v>632</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="636">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2209,167 +2209,180 @@
     <t>logs-hjxh365-6-23-high-ori-trim-percent63</t>
   </si>
   <si>
+    <t>最高标签，接着上次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-trim-ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约9小时，拟合一直与泛化重叠，泛化最好为0.65。拟合还没有超过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约33小时，拟合在泛化之上，但相差不大，上升慢，泛化最好为0.65。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-24-high-ori-check1-percent64</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=89 --input_nodes=89 --low_nums=2 --low_nodes=89 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes dropout_in=0.8 dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-23-high-ori-check-percent63</t>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-ori-check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约18小时，拟合较快就超过了泛化，泛化最好为0.65。拟合后面一直领先。泛化有所下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约14.5小时，泛化一直在拟合之上，泛化最好为0.67。后面还可以再提高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-24-high-ori-trim16-percent67</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-25-high-ori-trim16-percent65</t>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练train-hjxh365-2018-4-16-day-high-trim16-ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-trim16-ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15.5小时，泛化与拟合重叠，泛化最好为0.68。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-26-high-ori-trim16-percent62</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约30小时，泛化与拟合重叠，泛化最好为0.65。难以收敛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-26-high-ori-trim10-percent66</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True</t>
+  </si>
+  <si>
+    <t>经过约15.5小时，泛化一直在拟合之上，泛化最好为0.67。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-ori-trim16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-trim10-ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-ori-trim4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True</t>
+  </si>
+  <si>
+    <t>经过约32.5小时，泛化与拟合重叠，泛化最好为0.66。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-27-high-ori-trim4-percent66</t>
+  </si>
+  <si>
+    <t>经过约15.5小时，泛化一直在拟合之上，泛化最好为0.64。难以收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-27-high-ori-trim10-percent62</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_in=0.8 --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约24小时，泛化与拟合重叠，泛化最好为0.63。难以收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-28-high-ori-trim4-percent62</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-28-high-ori-trim10-percent66</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约16小时，泛化与拟合重叠，泛化最好为0.67。难以收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-29-high-ori-trim4-percent65</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约22小时，泛化与拟合重叠，泛化最好为0.66。难以收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15小时，泛化与拟合重叠，泛化最好为0.67。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-29-high-ori-trim16-percent65</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-trim16-ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-ori-check1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=40 --input_nodes=40 --low_nums=2 --low_nodes=40 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_in=0.8 --dropout_low=0.8</t>
-  </si>
-  <si>
-    <t>最高标签，接着上次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-trim-ori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约9小时，拟合一直与泛化重叠，泛化最好为0.65。拟合还没有超过。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约33小时，拟合在泛化之上，但相差不大，上升慢，泛化最好为0.65。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh-2018-6-24-high-ori-check1-percent64</t>
-  </si>
-  <si>
-    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=89 --input_nodes=89 --low_nums=2 --low_nodes=89 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>batch_size=100 low_nums=2 use_biases=yes dropout_in=0.8 dropout_low=0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh-2018-6-23-high-ori-check-percent63</t>
-  </si>
-  <si>
-    <t>最高标签，接着上次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-ori-check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约18小时，拟合较快就超过了泛化，泛化最好为0.65。拟合后面一直领先。泛化有所下降。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约14.5小时，泛化一直在拟合之上，泛化最好为0.67。后面还可以再提高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh365-6-24-high-ori-trim16-percent67</t>
-  </si>
-  <si>
-    <t>logs-hjxh365-6-25-high-ori-trim16-percent65</t>
-  </si>
-  <si>
-    <t>最高标签，接着上次训练train-hjxh365-2018-4-16-day-high-trim16-ori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-trim16-ori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约15.5小时，泛化与拟合重叠，泛化最好为0.68。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh-2018-6-26-high-ori-trim16-percent62</t>
-  </si>
-  <si>
-    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约30小时，泛化与拟合重叠，泛化最好为0.65。难以收敛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh365-6-26-high-ori-trim10-percent66</t>
-  </si>
-  <si>
-    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True</t>
-  </si>
-  <si>
-    <t>经过约15.5小时，泛化一直在拟合之上，泛化最好为0.67。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-ori-trim16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-trim10-ori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-ori-trim4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True</t>
-  </si>
-  <si>
-    <t>经过约32.5小时，泛化与拟合重叠，泛化最好为0.66。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh-2018-6-27-high-ori-trim4-percent66</t>
-  </si>
-  <si>
-    <t>经过约15.5小时，泛化一直在拟合之上，泛化最好为0.64。难以收敛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh365-6-27-high-ori-trim10-percent62</t>
-  </si>
-  <si>
-    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_in=0.8 --dropout_low=0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约24小时，泛化与拟合重叠，泛化最好为0.63。难以收敛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
-  </si>
-  <si>
-    <t>logs-hjxh-2018-6-28-high-ori-trim4-percent62</t>
-  </si>
-  <si>
-    <t>logs-hjxh365-6-28-high-ori-trim10-percent66</t>
-  </si>
-  <si>
-    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约16小时，泛化与拟合重叠，泛化最好为0.67。难以收敛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh-2018-6-29-high-ori-trim4-percent65</t>
-  </si>
-  <si>
-    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约22小时，泛化与拟合重叠，泛化最好为0.66。难以收敛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约15小时，泛化与拟合重叠，泛化最好为0.67。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
-  </si>
-  <si>
-    <t>logs-hjxh365-6-29-high-ori-trim16-percent65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes dropout_in=0.8 dropout_low=0.8 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2410,12 +2423,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2432,7 +2451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2456,6 +2475,18 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2753,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7410,41 +7441,41 @@
         <v>509</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A125" s="6">
+    <row r="125" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A125" s="8">
         <v>43248.347222222219</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E125" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125" s="9">
         <v>0.66</v>
       </c>
-      <c r="G125" s="1">
+      <c r="G125" s="9">
         <v>0.66</v>
       </c>
-      <c r="H125" s="1">
+      <c r="H125" s="9">
         <v>0.98</v>
       </c>
-      <c r="I125" s="1">
+      <c r="I125" s="9">
         <v>0.97</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="J125" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="K125" s="4" t="s">
+      <c r="K125" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="L125" t="s">
+      <c r="L125" s="11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -8094,41 +8125,41 @@
         <v>572</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A143" s="6">
+    <row r="143" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A143" s="8">
         <v>43273.638888888891</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="9">
         <v>0.66</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G143" s="9">
         <v>0.65</v>
       </c>
-      <c r="H143" s="1">
+      <c r="H143" s="9">
         <v>0.999</v>
       </c>
-      <c r="I143" s="1">
+      <c r="I143" s="9">
         <v>0.999</v>
       </c>
-      <c r="J143" s="1" t="s">
+      <c r="J143" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="K143" s="4" t="s">
+      <c r="K143" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="L143" t="s">
+      <c r="L143" s="11" t="s">
         <v>578</v>
       </c>
     </row>
@@ -8219,10 +8250,10 @@
         <v>275</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>542</v>
+        <v>635</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F146" s="1">
         <v>0.63</v>
@@ -8237,10 +8268,10 @@
         <v>0.91</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>588</v>
+        <v>634</v>
       </c>
       <c r="L146" t="s">
         <v>587</v>
@@ -8260,7 +8291,7 @@
         <v>496</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F147" s="1">
         <v>0.68</v>
@@ -8275,51 +8306,51 @@
         <v>1</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L147" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A148" s="6">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A148" s="8">
         <v>43275.826388888891</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="F148" s="1">
+      <c r="D148" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="F148" s="9">
         <v>0.64</v>
       </c>
-      <c r="G148" s="1">
+      <c r="G148" s="9">
         <v>0.64</v>
       </c>
-      <c r="H148" s="1">
+      <c r="H148" s="9">
         <v>0.96</v>
       </c>
-      <c r="I148" s="1">
+      <c r="I148" s="9">
         <v>0.95</v>
       </c>
-      <c r="J148" s="1" t="s">
+      <c r="J148" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="K148" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="L148" s="11" t="s">
         <v>591</v>
-      </c>
-      <c r="K148" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="L148" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="82.5" customHeight="1">
@@ -8336,7 +8367,7 @@
         <v>496</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="F149" s="1">
         <v>0.64</v>
@@ -8351,51 +8382,51 @@
         <v>0.94</v>
       </c>
       <c r="J149" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="K149" s="4" t="s">
+      <c r="L149" t="s">
         <v>600</v>
       </c>
-      <c r="L149" t="s">
+    </row>
+    <row r="150" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A150" s="8">
+        <v>43276.965277777781</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="F150" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="G150" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="H150" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="I150" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="K150" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="L150" s="11" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A150" s="6">
-        <v>43276.965277777781</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F150" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="G150" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="H150" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="I150" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="K150" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="L150" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="82.5" customHeight="1">
@@ -8409,10 +8440,10 @@
         <v>275</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F151" s="1">
         <v>0.62</v>
@@ -8427,51 +8458,51 @@
         <v>0.84</v>
       </c>
       <c r="J151" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="L151" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A152" s="8">
+        <v>43277.951388888891</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="F152" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="G152" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="H152" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="I152" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="K152" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="L152" s="11" t="s">
         <v>608</v>
-      </c>
-      <c r="K151" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="L151" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A152" s="6">
-        <v>43277.951388888891</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F152" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="G152" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="H152" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="I152" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="K152" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="L152" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="82.5" customHeight="1">
@@ -8488,7 +8519,7 @@
         <v>496</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F153" s="1">
         <v>0.64</v>
@@ -8503,13 +8534,13 @@
         <v>0.85</v>
       </c>
       <c r="J153" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="L153" t="s">
         <v>616</v>
-      </c>
-      <c r="K153" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="L153" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="82.5" customHeight="1">
@@ -8523,10 +8554,10 @@
         <v>275</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F154" s="1">
         <v>0.62</v>
@@ -8541,13 +8572,13 @@
         <v>0.76</v>
       </c>
       <c r="J154" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="L154" t="s">
         <v>618</v>
-      </c>
-      <c r="K154" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="L154" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="82.5" customHeight="1">
@@ -8561,10 +8592,10 @@
         <v>275</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F155" s="1">
         <v>0.61</v>
@@ -8579,13 +8610,13 @@
         <v>0.69</v>
       </c>
       <c r="J155" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="K155" s="4" t="s">
+      <c r="L155" t="s">
         <v>622</v>
-      </c>
-      <c r="L155" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="82.5" customHeight="1">
@@ -8602,7 +8633,7 @@
         <v>378</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F156" s="1">
         <v>0.64</v>
@@ -8617,13 +8648,13 @@
         <v>0.86</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L156" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="82.5" customHeight="1">
@@ -8640,7 +8671,7 @@
         <v>378</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F157" s="1">
         <v>0.64</v>
@@ -8655,51 +8686,51 @@
         <v>0.84</v>
       </c>
       <c r="J157" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="L157" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A158" s="8">
+        <v>43280.951388888891</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="F158" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="G158" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="H158" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="I158" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="J158" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="K157" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="L157" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A158" s="6">
-        <v>43280.951388888891</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F158" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="G158" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="H158" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="I158" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J158" s="1" t="s">
+      <c r="K158" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="K158" s="4" t="s">
+      <c r="L158" s="11" t="s">
         <v>631</v>
-      </c>
-      <c r="L158" t="s">
-        <v>632</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -2423,7 +2423,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2433,6 +2433,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2451,7 +2457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2486,6 +2492,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2784,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5275,79 +5293,79 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A68" s="6">
+    <row r="68" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A68" s="8">
         <v>43213.034722222219</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="9">
         <v>0.65</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="9">
         <v>0.64</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="9">
         <v>0.99</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="9">
         <v>0.97</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="K68" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="11" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A69" s="6">
+    <row r="69" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A69" s="8">
         <v>43213.034722222219</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="9">
         <v>0.64</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="9">
         <v>0.65</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="9">
         <v>0.95</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="9">
         <v>0.94</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K69" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="L69" t="s">
+      <c r="L69" s="11" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5389,41 +5407,41 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A71" s="6">
+    <row r="71" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A71" s="12">
         <v>43214.347222222219</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="13">
         <v>0.7</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="13">
         <v>0.6</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="13">
         <v>1</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="13">
         <v>1</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="K71" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" s="15" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5693,41 +5711,41 @@
         <v>322</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A79" s="6">
+    <row r="79" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A79" s="12">
         <v>43218.361111111109</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="13">
         <v>0.74</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79" s="13">
         <v>0.59</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="13">
         <v>1</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="13">
         <v>0.99</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K79" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" s="15" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5845,41 +5863,41 @@
         <v>340</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A83" s="6">
+    <row r="83" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A83" s="12">
         <v>43222.347222222219</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="13">
         <v>0.8</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="13">
         <v>0.59</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="13">
         <v>0.99</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="13">
         <v>0.99</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="K83" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L83" s="15" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6225,117 +6243,117 @@
         <v>383</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A93" s="6">
+    <row r="93" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A93" s="12">
         <v>43226.826388888891</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="13">
         <v>0.7</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93" s="13">
         <v>0.63</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H93" s="13">
         <v>0.98</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I93" s="13">
         <v>0.98</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="J93" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="K93" s="4" t="s">
+      <c r="K93" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="L93" t="s">
+      <c r="L93" s="15" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A94" s="6">
+    <row r="94" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A94" s="12">
         <v>43225.708333333336</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="13">
         <v>0.7</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="13">
         <v>0.63</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="13">
         <v>0.98</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="13">
         <v>0.98</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="J94" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="K94" s="4" t="s">
+      <c r="K94" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="L94" t="s">
+      <c r="L94" s="15" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A95" s="6">
+    <row r="95" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A95" s="12">
         <v>43227.375</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="13">
         <v>0.77</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G95" s="13">
         <v>0.61</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H95" s="13">
         <v>0.99</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="13">
         <v>0.99</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="K95" s="4" t="s">
+      <c r="K95" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="L95" t="s">
+      <c r="L95" s="15" t="s">
         <v>388</v>
       </c>
     </row>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1466,10 +1466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logs-hjxh-2018-5-6-high-norm-pca99-wavelet20-percent63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>logs-hjxh-2018-5-5-high-clear-norm-pca99-wavelet20-percent63</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1506,9 +1502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ogs-hjxh-2018-5-8-high-plus-clear-norm-pca9999-wavelet60-percent60</t>
-  </si>
-  <si>
     <t>最高标签，重新训练，新加指标经过归一化数据加PCA及Wavelet处理数据train-hjxh365-2018-4-16-day-plus-norm-clear-pca9999-wavelet60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2382,6 +2375,14 @@
   </si>
   <si>
     <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes dropout_in=0.8 dropout_low=0.8 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-5-6-high-norm-pca99-wavelet20-percent63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-8-high-plus-clear-norm-pca9999-wavelet60-percent60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2802,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="K94" workbookViewId="0">
+      <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5939,41 +5940,41 @@
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="82.5" customHeight="1">
-      <c r="A85" s="6">
+    <row r="85" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A85" s="12">
         <v>43222.847222222219</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="13">
         <v>0.72</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85" s="13">
         <v>0.63</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="13">
         <v>1</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="13">
         <v>0.99</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="K85" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L85" s="15" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6278,7 +6279,7 @@
         <v>384</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>386</v>
+        <v>634</v>
       </c>
     </row>
     <row r="94" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
@@ -6292,10 +6293,10 @@
         <v>275</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F94" s="13">
         <v>0.7</v>
@@ -6310,13 +6311,13 @@
         <v>0.98</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="95" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
@@ -6330,10 +6331,10 @@
         <v>275</v>
       </c>
       <c r="D95" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="E95" s="13" t="s">
         <v>394</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>395</v>
       </c>
       <c r="F95" s="13">
         <v>0.77</v>
@@ -6348,13 +6349,13 @@
         <v>0.99</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="82.5" customHeight="1">
@@ -6368,10 +6369,10 @@
         <v>275</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F96" s="1">
         <v>0.67</v>
@@ -6386,13 +6387,13 @@
         <v>0.91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L96" t="s">
-        <v>396</v>
+        <v>635</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="82.5" customHeight="1">
@@ -6406,10 +6407,10 @@
         <v>275</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F97" s="1">
         <v>0.61</v>
@@ -6424,13 +6425,13 @@
         <v>0.86</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L97" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="82.5" customHeight="1">
@@ -6444,10 +6445,10 @@
         <v>275</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F98" s="1">
         <v>0.61</v>
@@ -6462,13 +6463,13 @@
         <v>0.83</v>
       </c>
       <c r="J98" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="L98" t="s">
         <v>405</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="L98" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="82.5" customHeight="1">
@@ -6482,10 +6483,10 @@
         <v>275</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F99" s="1">
         <v>0.62</v>
@@ -6500,13 +6501,13 @@
         <v>0.85</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L99" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="82.5" customHeight="1">
@@ -6523,7 +6524,7 @@
         <v>328</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F100" s="1">
         <v>0.68</v>
@@ -6538,13 +6539,13 @@
         <v>0.96</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K100" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="L100" t="s">
         <v>412</v>
-      </c>
-      <c r="L100" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="82.5" customHeight="1">
@@ -6561,7 +6562,7 @@
         <v>328</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F101" s="1">
         <v>0.66</v>
@@ -6576,13 +6577,13 @@
         <v>0.95</v>
       </c>
       <c r="J101" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="L101" t="s">
         <v>416</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="L101" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="82.5" customHeight="1">
@@ -6599,7 +6600,7 @@
         <v>328</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F102" s="1">
         <v>0.74</v>
@@ -6614,13 +6615,13 @@
         <v>0.999</v>
       </c>
       <c r="J102" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="L102" t="s">
         <v>420</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="L102" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="82.5" customHeight="1">
@@ -6637,7 +6638,7 @@
         <v>328</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F103" s="1">
         <v>0.68</v>
@@ -6652,13 +6653,13 @@
         <v>0.98</v>
       </c>
       <c r="J103" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="L103" t="s">
         <v>424</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="L103" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="82.5" customHeight="1">
@@ -6675,7 +6676,7 @@
         <v>328</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F104" s="1">
         <v>0.63</v>
@@ -6690,13 +6691,13 @@
         <v>0.97</v>
       </c>
       <c r="J104" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="L104" t="s">
         <v>428</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="L104" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="82.5" customHeight="1">
@@ -6713,7 +6714,7 @@
         <v>328</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F105" s="1">
         <v>0.67</v>
@@ -6728,13 +6729,13 @@
         <v>1</v>
       </c>
       <c r="J105" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="K105" s="4" t="s">
-        <v>433</v>
-      </c>
       <c r="L105" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="82.5" customHeight="1">
@@ -6748,10 +6749,10 @@
         <v>275</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F106" s="1">
         <v>0.68</v>
@@ -6766,13 +6767,13 @@
         <v>0.96</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L106" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="82.5" customHeight="1">
@@ -6786,10 +6787,10 @@
         <v>275</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F107" s="1">
         <v>0.68</v>
@@ -6804,13 +6805,13 @@
         <v>0.99</v>
       </c>
       <c r="J107" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="K107" s="4" t="s">
-        <v>441</v>
-      </c>
       <c r="L107" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="82.5" customHeight="1">
@@ -6824,10 +6825,10 @@
         <v>275</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F108" s="1">
         <v>0.64</v>
@@ -6842,13 +6843,13 @@
         <v>0.94</v>
       </c>
       <c r="J108" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="K108" s="4" t="s">
-        <v>446</v>
-      </c>
       <c r="L108" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="82.5" customHeight="1">
@@ -6865,7 +6866,7 @@
         <v>328</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F109" s="1">
         <v>0.67</v>
@@ -6880,13 +6881,13 @@
         <v>0.999</v>
       </c>
       <c r="J109" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="K109" s="4" t="s">
-        <v>449</v>
-      </c>
       <c r="L109" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="82.5" customHeight="1">
@@ -6900,10 +6901,10 @@
         <v>275</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F110" s="1">
         <v>0.65</v>
@@ -6918,13 +6919,13 @@
         <v>0.998</v>
       </c>
       <c r="J110" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="K110" s="4" t="s">
-        <v>454</v>
-      </c>
       <c r="L110" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="82.5" customHeight="1">
@@ -6938,10 +6939,10 @@
         <v>275</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F111" s="1">
         <v>0.68</v>
@@ -6956,13 +6957,13 @@
         <v>0.98</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L111" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="82.5" customHeight="1">
@@ -6976,10 +6977,10 @@
         <v>275</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F112" s="1">
         <v>0.65</v>
@@ -6994,13 +6995,13 @@
         <v>0.96</v>
       </c>
       <c r="J112" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="K112" s="4" t="s">
-        <v>465</v>
-      </c>
       <c r="L112" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="82.5" customHeight="1">
@@ -7014,10 +7015,10 @@
         <v>275</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F113" s="1">
         <v>0.64</v>
@@ -7032,13 +7033,13 @@
         <v>0.95</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L113" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="82.5" customHeight="1">
@@ -7052,10 +7053,10 @@
         <v>275</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F114" s="1">
         <v>0.63</v>
@@ -7070,13 +7071,13 @@
         <v>0.97</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L114" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="82.5" customHeight="1">
@@ -7090,10 +7091,10 @@
         <v>275</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F115" s="1">
         <v>0.62</v>
@@ -7108,13 +7109,13 @@
         <v>0.99</v>
       </c>
       <c r="J115" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="K115" s="4" t="s">
-        <v>476</v>
-      </c>
       <c r="L115" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="82.5" customHeight="1">
@@ -7128,10 +7129,10 @@
         <v>275</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F116" s="1">
         <v>0.62</v>
@@ -7146,13 +7147,13 @@
         <v>0.85</v>
       </c>
       <c r="J116" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="K116" s="4" t="s">
-        <v>480</v>
-      </c>
       <c r="L116" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="82.5" customHeight="1">
@@ -7166,10 +7167,10 @@
         <v>275</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F117" s="1">
         <v>0.64</v>
@@ -7184,13 +7185,13 @@
         <v>0.99</v>
       </c>
       <c r="J117" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="K117" s="4" t="s">
-        <v>483</v>
-      </c>
       <c r="L117" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="82.5" customHeight="1">
@@ -7204,10 +7205,10 @@
         <v>275</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F118" s="1">
         <v>0.61</v>
@@ -7222,13 +7223,13 @@
         <v>0.86</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K118" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="L118" t="s">
         <v>485</v>
-      </c>
-      <c r="L118" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="82.5" customHeight="1">
@@ -7242,10 +7243,10 @@
         <v>275</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F119" s="1">
         <v>0.62</v>
@@ -7260,13 +7261,13 @@
         <v>0.91</v>
       </c>
       <c r="J119" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="K119" s="4" t="s">
-        <v>490</v>
-      </c>
       <c r="L119" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="82.5" customHeight="1">
@@ -7283,7 +7284,7 @@
         <v>355</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F120" s="1">
         <v>0.61</v>
@@ -7298,13 +7299,13 @@
         <v>0.86</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L120" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="82.5" customHeight="1">
@@ -7318,10 +7319,10 @@
         <v>275</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F121" s="1">
         <v>0.63</v>
@@ -7336,13 +7337,13 @@
         <v>0.82</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L121" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="82.5" customHeight="1">
@@ -7359,7 +7360,7 @@
         <v>355</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F122" s="1">
         <v>0.67</v>
@@ -7374,13 +7375,13 @@
         <v>0.98</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L122" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="82.5" customHeight="1">
@@ -7397,7 +7398,7 @@
         <v>355</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F123" s="1">
         <v>0.69</v>
@@ -7412,13 +7413,13 @@
         <v>0.99</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L123" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="82.5" customHeight="1">
@@ -7435,7 +7436,7 @@
         <v>355</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F124" s="1">
         <v>0.63</v>
@@ -7450,13 +7451,13 @@
         <v>0.94</v>
       </c>
       <c r="J124" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="K124" s="4" t="s">
-        <v>508</v>
-      </c>
       <c r="L124" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="125" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
@@ -7473,7 +7474,7 @@
         <v>355</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F125" s="9">
         <v>0.66</v>
@@ -7488,13 +7489,13 @@
         <v>0.97</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L125" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="82.5" customHeight="1">
@@ -7511,7 +7512,7 @@
         <v>355</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F126" s="1">
         <v>0.64</v>
@@ -7526,13 +7527,13 @@
         <v>0.95</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L126" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="82.5" customHeight="1">
@@ -7549,7 +7550,7 @@
         <v>355</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F127" s="1">
         <v>0.68</v>
@@ -7564,13 +7565,13 @@
         <v>0.98</v>
       </c>
       <c r="J127" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="L127" t="s">
         <v>516</v>
-      </c>
-      <c r="K127" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="L127" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="82.5" customHeight="1">
@@ -7587,7 +7588,7 @@
         <v>355</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F128" s="1">
         <v>0.63</v>
@@ -7602,13 +7603,13 @@
         <v>0.95</v>
       </c>
       <c r="J128" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="L128" t="s">
         <v>519</v>
-      </c>
-      <c r="K128" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="L128" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="82.5" customHeight="1">
@@ -7622,10 +7623,10 @@
         <v>275</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F129" s="1">
         <v>0.64</v>
@@ -7640,13 +7641,13 @@
         <v>0.91</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L129" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="82.5" customHeight="1">
@@ -7660,10 +7661,10 @@
         <v>275</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F130" s="1">
         <v>0.63</v>
@@ -7678,13 +7679,13 @@
         <v>0.96</v>
       </c>
       <c r="J130" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="L130" t="s">
         <v>526</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="L130" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="82.5" customHeight="1">
@@ -7698,10 +7699,10 @@
         <v>275</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F131" s="1">
         <v>0.64</v>
@@ -7716,13 +7717,13 @@
         <v>0.96</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L131" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="82.5" customHeight="1">
@@ -7736,10 +7737,10 @@
         <v>275</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F132" s="1">
         <v>0.64</v>
@@ -7754,13 +7755,13 @@
         <v>0.97</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L132" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="82.5" customHeight="1">
@@ -7774,10 +7775,10 @@
         <v>275</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F133" s="1">
         <v>0.57999999999999996</v>
@@ -7792,13 +7793,13 @@
         <v>0.89</v>
       </c>
       <c r="J133" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="L133" t="s">
         <v>534</v>
-      </c>
-      <c r="K133" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="L133" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="82.5" customHeight="1">
@@ -7812,10 +7813,10 @@
         <v>275</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F134" s="1">
         <v>0.63</v>
@@ -7830,13 +7831,13 @@
         <v>0.91</v>
       </c>
       <c r="J134" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="K134" s="4" t="s">
-        <v>539</v>
-      </c>
       <c r="L134" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="82.5" customHeight="1">
@@ -7850,10 +7851,10 @@
         <v>275</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F135" s="1">
         <v>0.62</v>
@@ -7868,13 +7869,13 @@
         <v>0.92</v>
       </c>
       <c r="J135" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="K135" s="4" t="s">
-        <v>545</v>
-      </c>
       <c r="L135" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="82.5" customHeight="1">
@@ -7888,10 +7889,10 @@
         <v>275</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F136" s="1">
         <v>0.67</v>
@@ -7906,13 +7907,13 @@
         <v>0.98</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L136" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="82.5" customHeight="1">
@@ -7926,10 +7927,10 @@
         <v>275</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F137" s="1">
         <v>0.63</v>
@@ -7944,13 +7945,13 @@
         <v>0.94</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L137" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="82.5" customHeight="1">
@@ -7964,10 +7965,10 @@
         <v>275</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F138" s="1">
         <v>0.64</v>
@@ -7982,13 +7983,13 @@
         <v>0.95</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L138" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="82.5" customHeight="1">
@@ -8002,10 +8003,10 @@
         <v>275</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F139" s="1">
         <v>0.62</v>
@@ -8020,13 +8021,13 @@
         <v>0.85</v>
       </c>
       <c r="J139" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="L139" t="s">
         <v>561</v>
-      </c>
-      <c r="K139" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="L139" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="82.5" customHeight="1">
@@ -8040,10 +8041,10 @@
         <v>275</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F140" s="1">
         <v>0.59</v>
@@ -8058,13 +8059,13 @@
         <v>0.81</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L140" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="82.5" customHeight="1">
@@ -8078,10 +8079,10 @@
         <v>275</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F141" s="1">
         <v>0.59</v>
@@ -8096,13 +8097,13 @@
         <v>0.8</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L141" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="82.5" customHeight="1">
@@ -8116,10 +8117,10 @@
         <v>275</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F142" s="1">
         <v>0.65</v>
@@ -8134,13 +8135,13 @@
         <v>0.95</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L142" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="143" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
@@ -8154,10 +8155,10 @@
         <v>275</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F143" s="9">
         <v>0.66</v>
@@ -8172,13 +8173,13 @@
         <v>0.999</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K143" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L143" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="82.5" customHeight="1">
@@ -8192,10 +8193,10 @@
         <v>275</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F144" s="1">
         <v>0.59</v>
@@ -8210,13 +8211,13 @@
         <v>0.82</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L144" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="82.5" customHeight="1">
@@ -8230,10 +8231,10 @@
         <v>275</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F145" s="1">
         <v>0.67</v>
@@ -8248,13 +8249,13 @@
         <v>0.99</v>
       </c>
       <c r="J145" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="K145" s="4" t="s">
-        <v>586</v>
-      </c>
       <c r="L145" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="82.5" customHeight="1">
@@ -8268,10 +8269,10 @@
         <v>275</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F146" s="1">
         <v>0.63</v>
@@ -8286,13 +8287,13 @@
         <v>0.91</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L146" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="82.5" customHeight="1">
@@ -8306,10 +8307,10 @@
         <v>275</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F147" s="1">
         <v>0.68</v>
@@ -8324,13 +8325,13 @@
         <v>1</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L147" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="148" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
@@ -8344,10 +8345,10 @@
         <v>275</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F148" s="9">
         <v>0.64</v>
@@ -8362,13 +8363,13 @@
         <v>0.95</v>
       </c>
       <c r="J148" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="K148" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="K148" s="10" t="s">
-        <v>592</v>
-      </c>
       <c r="L148" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="82.5" customHeight="1">
@@ -8382,10 +8383,10 @@
         <v>275</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F149" s="1">
         <v>0.64</v>
@@ -8400,13 +8401,13 @@
         <v>0.94</v>
       </c>
       <c r="J149" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="L149" t="s">
         <v>598</v>
-      </c>
-      <c r="K149" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="L149" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="150" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
@@ -8420,10 +8421,10 @@
         <v>275</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F150" s="9">
         <v>0.65</v>
@@ -8438,13 +8439,13 @@
         <v>0.96</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K150" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="L150" s="11" t="s">
         <v>599</v>
-      </c>
-      <c r="L150" s="11" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="82.5" customHeight="1">
@@ -8458,10 +8459,10 @@
         <v>275</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F151" s="1">
         <v>0.62</v>
@@ -8476,13 +8477,13 @@
         <v>0.84</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L151" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="152" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
@@ -8496,10 +8497,10 @@
         <v>275</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F152" s="9">
         <v>0.64</v>
@@ -8514,13 +8515,13 @@
         <v>0.96</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K152" s="10" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L152" s="11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="82.5" customHeight="1">
@@ -8534,10 +8535,10 @@
         <v>275</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F153" s="1">
         <v>0.64</v>
@@ -8552,13 +8553,13 @@
         <v>0.85</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K153" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="L153" t="s">
         <v>614</v>
-      </c>
-      <c r="L153" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="82.5" customHeight="1">
@@ -8572,10 +8573,10 @@
         <v>275</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F154" s="1">
         <v>0.62</v>
@@ -8590,13 +8591,13 @@
         <v>0.76</v>
       </c>
       <c r="J154" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="K154" s="4" t="s">
-        <v>619</v>
-      </c>
       <c r="L154" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="82.5" customHeight="1">
@@ -8610,10 +8611,10 @@
         <v>275</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F155" s="1">
         <v>0.61</v>
@@ -8628,13 +8629,13 @@
         <v>0.69</v>
       </c>
       <c r="J155" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="L155" t="s">
         <v>620</v>
-      </c>
-      <c r="K155" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="L155" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="82.5" customHeight="1">
@@ -8651,7 +8652,7 @@
         <v>378</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F156" s="1">
         <v>0.64</v>
@@ -8666,13 +8667,13 @@
         <v>0.86</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L156" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="82.5" customHeight="1">
@@ -8689,7 +8690,7 @@
         <v>378</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F157" s="1">
         <v>0.64</v>
@@ -8704,13 +8705,13 @@
         <v>0.84</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L157" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
@@ -8727,7 +8728,7 @@
         <v>378</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F158" s="9">
         <v>0.65</v>
@@ -8742,13 +8743,13 @@
         <v>0.1</v>
       </c>
       <c r="J158" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="K158" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="L158" s="11" t="s">
         <v>629</v>
-      </c>
-      <c r="K158" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="L158" s="11" t="s">
-        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="639">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2383,6 +2383,17 @@
   </si>
   <si>
     <t>logs-hjxh-2018-5-8-high-plus-clear-norm-pca9999-wavelet60-percent60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-7-1-high-ori-trim4-percent64</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约42小时，泛化与拟合重叠，泛化最好为0.66。难以收敛。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2801,10 +2812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L158"/>
+  <dimension ref="A1:L159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K94" workbookViewId="0">
-      <selection activeCell="L96" sqref="L96"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="K157" sqref="K157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8750,6 +8761,44 @@
       </c>
       <c r="L158" s="11" t="s">
         <v>629</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" ht="82.5" customHeight="1">
+      <c r="A159" s="6">
+        <v>43282.472222222219</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="L159" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="643">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2394,6 +2394,21 @@
   </si>
   <si>
     <t>经过约42小时，泛化与拟合重叠，泛化最好为0.66。难以收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15.5小时，泛化一直在拟合之上，泛化最好为0.68。需继续训练观察。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-7-2-high-ori-trim16-percent66</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_input=True use_bn_low=True </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2812,10 +2827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L159"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="K157" sqref="K157"/>
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8751,7 +8766,7 @@
         <v>0.99</v>
       </c>
       <c r="I158" s="9">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J158" s="9" t="s">
         <v>627</v>
@@ -8799,6 +8814,44 @@
       </c>
       <c r="L159" t="s">
         <v>636</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A160" s="8">
+        <v>43283.958333333336</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="F160" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="G160" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="H160" s="9">
+        <v>1</v>
+      </c>
+      <c r="I160" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="K160" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="L160" s="11" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="646">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2217,198 +2217,210 @@
     <t>logs-hjxh-2018-6-24-high-ori-check1-percent64</t>
   </si>
   <si>
+    <t>batch_size=100 low_nums=2 use_biases=yes dropout_in=0.8 dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-23-high-ori-check-percent63</t>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-ori-check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约18小时，拟合较快就超过了泛化，泛化最好为0.65。拟合后面一直领先。泛化有所下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约14.5小时，泛化一直在拟合之上，泛化最好为0.67。后面还可以再提高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-24-high-ori-trim16-percent67</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-25-high-ori-trim16-percent65</t>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练train-hjxh365-2018-4-16-day-high-trim16-ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-trim16-ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15.5小时，泛化与拟合重叠，泛化最好为0.68。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-26-high-ori-trim16-percent62</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约30小时，泛化与拟合重叠，泛化最好为0.65。难以收敛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-26-high-ori-trim10-percent66</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True</t>
+  </si>
+  <si>
+    <t>经过约15.5小时，泛化一直在拟合之上，泛化最好为0.67。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-ori-trim16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-trim10-ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-ori-trim4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True</t>
+  </si>
+  <si>
+    <t>经过约32.5小时，泛化与拟合重叠，泛化最好为0.66。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-27-high-ori-trim4-percent66</t>
+  </si>
+  <si>
+    <t>经过约15.5小时，泛化一直在拟合之上，泛化最好为0.64。难以收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-27-high-ori-trim10-percent62</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_in=0.8 --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约24小时，泛化与拟合重叠，泛化最好为0.63。难以收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-28-high-ori-trim4-percent62</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-28-high-ori-trim10-percent66</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约16小时，泛化与拟合重叠，泛化最好为0.67。难以收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-6-29-high-ori-trim4-percent65</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约22小时，泛化与拟合重叠，泛化最好为0.66。难以收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15小时，泛化与拟合重叠，泛化最好为0.67。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-6-29-high-ori-trim16-percent65</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-trim16-ori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-ori-check1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=40 --input_nodes=40 --low_nums=2 --low_nodes=40 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_in=0.8 --dropout_low=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes dropout_in=0.8 dropout_low=0.8 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-5-6-high-norm-pca99-wavelet20-percent63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-5-8-high-plus-clear-norm-pca9999-wavelet60-percent60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-7-1-high-ori-trim4-percent64</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约42小时，泛化与拟合重叠，泛化最好为0.66。难以收敛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15.5小时，泛化一直在拟合之上，泛化最好为0.68。需继续训练观察。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-7-2-high-ori-trim16-percent66</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_input=True use_bn_low=True </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=89 --input_nodes=89 --low_nums=2 --low_nodes=89 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>batch_size=100 low_nums=2 use_biases=yes dropout_in=0.8 dropout_low=0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh-2018-6-23-high-ori-check-percent63</t>
-  </si>
-  <si>
-    <t>最高标签，接着上次训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-ori-check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=90 --input_nodes=90 --low_nums=2 --low_nodes=90 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约18小时，拟合较快就超过了泛化，泛化最好为0.65。拟合后面一直领先。泛化有所下降。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约14.5小时，泛化一直在拟合之上，泛化最好为0.67。后面还可以再提高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh365-6-24-high-ori-trim16-percent67</t>
-  </si>
-  <si>
-    <t>logs-hjxh365-6-25-high-ori-trim16-percent65</t>
-  </si>
-  <si>
-    <t>最高标签，接着上次训练train-hjxh365-2018-4-16-day-high-trim16-ori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-trim16-ori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约15.5小时，泛化与拟合重叠，泛化最好为0.68。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh-2018-6-26-high-ori-trim16-percent62</t>
-  </si>
-  <si>
-    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约30小时，泛化与拟合重叠，泛化最好为0.65。难以收敛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh365-6-26-high-ori-trim10-percent66</t>
-  </si>
-  <si>
-    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True</t>
-  </si>
-  <si>
-    <t>经过约15.5小时，泛化一直在拟合之上，泛化最好为0.67。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-ori-trim16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-trim10-ori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-ori-trim4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --use_bn_input=True</t>
-  </si>
-  <si>
-    <t>经过约32.5小时，泛化与拟合重叠，泛化最好为0.66。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh-2018-6-27-high-ori-trim4-percent66</t>
-  </si>
-  <si>
-    <t>经过约15.5小时，泛化一直在拟合之上，泛化最好为0.64。难以收敛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh365-6-27-high-ori-trim10-percent62</t>
-  </si>
-  <si>
-    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_in=0.8 --dropout_low=0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约24小时，泛化与拟合重叠，泛化最好为0.63。难以收敛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
-  </si>
-  <si>
-    <t>logs-hjxh-2018-6-28-high-ori-trim4-percent62</t>
-  </si>
-  <si>
-    <t>logs-hjxh365-6-28-high-ori-trim10-percent66</t>
-  </si>
-  <si>
-    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约16小时，泛化与拟合重叠，泛化最好为0.67。难以收敛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh-2018-6-29-high-ori-trim4-percent65</t>
-  </si>
-  <si>
-    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约22小时，泛化与拟合重叠，泛化最好为0.66。难以收敛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约15小时，泛化与拟合重叠，泛化最好为0.67。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_low=True</t>
-  </si>
-  <si>
-    <t>logs-hjxh365-6-29-high-ori-trim16-percent65</t>
-  </si>
-  <si>
-    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-high-trim16-ori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-high-ori-check1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=40 --input_nodes=40 --low_nums=2 --low_nodes=40 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --dropout_in=0.8 --dropout_low=0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes dropout_in=0.8 dropout_low=0.8 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh365-5-6-high-norm-pca99-wavelet20-percent63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh-2018-5-8-high-plus-clear-norm-pca9999-wavelet60-percent60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh-2018-7-1-high-ori-trim4-percent64</t>
-  </si>
-  <si>
-    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约42小时，泛化与拟合重叠，泛化最好为0.66。难以收敛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过约15.5小时，泛化一直在拟合之上，泛化最好为0.68。需继续训练观察。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logs-hjxh365-7-2-high-ori-trim16-percent66</t>
-  </si>
-  <si>
-    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_input=True use_bn_low=True </t>
+    <t>经过约50小时，拟合在泛化之上，泛化最好为0.67。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-7-3-high-ori-trim16-percent65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2827,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L160"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6305,7 +6317,7 @@
         <v>384</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="94" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
@@ -6419,7 +6431,7 @@
         <v>409</v>
       </c>
       <c r="L96" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="82.5" customHeight="1">
@@ -8295,7 +8307,7 @@
         <v>275</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>586</v>
@@ -8316,7 +8328,7 @@
         <v>587</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L146" t="s">
         <v>585</v>
@@ -8336,7 +8348,7 @@
         <v>494</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F147" s="1">
         <v>0.68</v>
@@ -8351,13 +8363,13 @@
         <v>1</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L147" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="148" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
@@ -8371,10 +8383,10 @@
         <v>275</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F148" s="9">
         <v>0.64</v>
@@ -8392,7 +8404,7 @@
         <v>588</v>
       </c>
       <c r="K148" s="10" t="s">
-        <v>590</v>
+        <v>642</v>
       </c>
       <c r="L148" s="11" t="s">
         <v>589</v>
@@ -8412,7 +8424,7 @@
         <v>494</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F149" s="1">
         <v>0.64</v>
@@ -8427,13 +8439,13 @@
         <v>0.94</v>
       </c>
       <c r="J149" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="K149" s="4" t="s">
+      <c r="L149" t="s">
         <v>597</v>
-      </c>
-      <c r="L149" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="150" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
@@ -8450,7 +8462,7 @@
         <v>494</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F150" s="9">
         <v>0.65</v>
@@ -8465,13 +8477,13 @@
         <v>0.96</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K150" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L150" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="82.5" customHeight="1">
@@ -8485,10 +8497,10 @@
         <v>275</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F151" s="1">
         <v>0.62</v>
@@ -8503,13 +8515,13 @@
         <v>0.84</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L151" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="152" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
@@ -8526,7 +8538,7 @@
         <v>494</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F152" s="9">
         <v>0.64</v>
@@ -8541,13 +8553,13 @@
         <v>0.96</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K152" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L152" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="82.5" customHeight="1">
@@ -8564,7 +8576,7 @@
         <v>494</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F153" s="1">
         <v>0.64</v>
@@ -8579,13 +8591,13 @@
         <v>0.85</v>
       </c>
       <c r="J153" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="L153" t="s">
         <v>613</v>
-      </c>
-      <c r="K153" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="L153" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="82.5" customHeight="1">
@@ -8599,10 +8611,10 @@
         <v>275</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F154" s="1">
         <v>0.62</v>
@@ -8617,13 +8629,13 @@
         <v>0.76</v>
       </c>
       <c r="J154" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="L154" t="s">
         <v>615</v>
-      </c>
-      <c r="K154" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="L154" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="82.5" customHeight="1">
@@ -8637,10 +8649,10 @@
         <v>275</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F155" s="1">
         <v>0.61</v>
@@ -8655,13 +8667,13 @@
         <v>0.69</v>
       </c>
       <c r="J155" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="K155" s="4" t="s">
+      <c r="L155" t="s">
         <v>619</v>
-      </c>
-      <c r="L155" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="82.5" customHeight="1">
@@ -8678,7 +8690,7 @@
         <v>378</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F156" s="1">
         <v>0.64</v>
@@ -8693,13 +8705,13 @@
         <v>0.86</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L156" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="82.5" customHeight="1">
@@ -8716,7 +8728,7 @@
         <v>378</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F157" s="1">
         <v>0.64</v>
@@ -8731,13 +8743,13 @@
         <v>0.84</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L157" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
@@ -8754,7 +8766,7 @@
         <v>378</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F158" s="9">
         <v>0.65</v>
@@ -8769,13 +8781,13 @@
         <v>1</v>
       </c>
       <c r="J158" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="K158" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="K158" s="10" t="s">
+      <c r="L158" s="11" t="s">
         <v>628</v>
-      </c>
-      <c r="L158" s="11" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="82.5" customHeight="1">
@@ -8792,7 +8804,7 @@
         <v>328</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F159" s="1">
         <v>0.64</v>
@@ -8807,13 +8819,13 @@
         <v>0.86</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L159" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="160" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
@@ -8827,10 +8839,10 @@
         <v>275</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F160" s="9">
         <v>0.65</v>
@@ -8845,13 +8857,51 @@
         <v>0.99</v>
       </c>
       <c r="J160" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="K160" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="L160" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="K160" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="L160" s="11" t="s">
-        <v>640</v>
+    </row>
+    <row r="161" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A161" s="8">
+        <v>43284.638888888891</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="F161" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="G161" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="H161" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="I161" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="K161" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="L161" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="648">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2422,6 +2422,13 @@
   <si>
     <t>logs-hjxh-2018-7-3-high-ori-trim16-percent65</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约15小时，泛化慢慢与拟合重叠了，泛化最好为0.68。没有什么进步了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-7-3-high-ori-trim16-percent65</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2503,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2543,6 +2550,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2839,10 +2858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L161"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8902,6 +8921,44 @@
       </c>
       <c r="L161" s="11" t="s">
         <v>645</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A162" s="16">
+        <v>43284.923611111109</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D162" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="E162" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="F162" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="G162" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="H162" s="17">
+        <v>1</v>
+      </c>
+      <c r="I162" s="17">
+        <v>1</v>
+      </c>
+      <c r="J162" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="K162" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="L162" s="19" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="652">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2429,6 +2429,20 @@
   </si>
   <si>
     <t>logs-hjxh365-7-3-high-ori-trim16-percent65</t>
+  </si>
+  <si>
+    <t>最低标签，重新训练，新加指标经过归一化数据train-hjxh365-2018-4-16-day-low-ori-check1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=89 --input_nodes=89 --low_nums=2 --low_nodes=89 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes  --dropout_in=0.8 --dropout_low=0.8</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-7-9-low-ori-check1-percent64</t>
+  </si>
+  <si>
+    <t>经过约62小时，拟合在泛化之上，但相差不大，上升慢，泛化最好为0.66。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2858,10 +2872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L162"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8959,6 +8973,44 @@
       </c>
       <c r="L162" s="19" t="s">
         <v>647</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A163" s="8">
+        <v>43290.340277777781</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="F163" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="G163" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="H163" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="I163" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="K163" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="L163" s="11" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="656">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2442,6 +2442,20 @@
   </si>
   <si>
     <t>经过约62小时，拟合在泛化之上，但相差不大，上升慢，泛化最好为0.66。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-low-ori-trim16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-7-11-low-ori-trim16-percent65</t>
+  </si>
+  <si>
+    <t>经过约57小时，拟合在泛化之上，泛化最好为0.67。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2872,10 +2886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L163"/>
+  <dimension ref="A1:L164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="J163" sqref="J163"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9011,6 +9025,44 @@
       </c>
       <c r="L163" s="11" t="s">
         <v>650</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A164" s="8">
+        <v>43292.763888888891</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="F164" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="G164" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="H164" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="I164" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="K164" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="L164" s="11" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="660">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2457,6 +2457,20 @@
   <si>
     <t>经过约57小时，拟合在泛化之上，泛化最好为0.67。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-low-ori-trim10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约38小时，拟合在泛化之上，泛化最好为0.67。最大概率难上去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=10 --input_nodes=10 --low_nums=2 --low_nodes=10 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-7-13-low-ori-trim16-percent64</t>
   </si>
 </sst>
 </file>
@@ -2886,10 +2900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L164"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="L165" sqref="L165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9063,6 +9077,44 @@
       </c>
       <c r="L164" s="11" t="s">
         <v>654</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A165" s="16">
+        <v>43294.416666666664</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="E165" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="F165" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="G165" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="H165" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="I165" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="J165" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="K165" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="L165" s="19" t="s">
+        <v>659</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="664">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2471,6 +2471,20 @@
   </si>
   <si>
     <t>logs-hjxh-2018-7-13-low-ori-trim16-percent64</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-hjxh365-2018-4-16-day-low-ori-trim4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约52小时，拟合在泛化之上，泛化最好为0.67。最大概率难上去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=14 --input_nums=4 --input_nodes=4 --low_nums=2 --low_nodes=4 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-7-15-low-ori-trim4-percent63</t>
   </si>
 </sst>
 </file>
@@ -2900,10 +2914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L165"/>
+  <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="L165" sqref="L165"/>
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9115,6 +9129,44 @@
       </c>
       <c r="L165" s="19" t="s">
         <v>659</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A166" s="16">
+        <v>43296.916666666664</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E166" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="F166" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="G166" s="17">
+        <v>0.63</v>
+      </c>
+      <c r="H166" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="I166" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="J166" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="K166" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="L166" s="19" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="670">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2485,6 +2485,28 @@
   </si>
   <si>
     <t>logs-hjxh-2018-7-15-low-ori-trim4-percent63</t>
+  </si>
+  <si>
+    <t>11分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_input=True </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-365-hjxh-2018-7-23-day-hima-ori20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约39小时，拟合在泛化之上，泛化最好为0.66。后面慢慢分化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=11 --input_nums=20 --input_nodes=20 --low_nums=2 --low_nodes=20 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5450 --test_size=1359 --use_biases=yes --use_bn_input=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-7-25-day-hima-ori20-percent64</t>
   </si>
 </sst>
 </file>
@@ -2914,10 +2936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L166"/>
+  <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" topLeftCell="K164" workbookViewId="0">
+      <selection activeCell="L167" sqref="L167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9167,6 +9189,44 @@
       </c>
       <c r="L166" s="19" t="s">
         <v>663</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A167" s="16">
+        <v>43306.354166666664</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="E167" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="F167" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="G167" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="H167" s="17">
+        <v>1</v>
+      </c>
+      <c r="I167" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="J167" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="K167" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="L167" s="19" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="673">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2507,6 +2507,17 @@
   </si>
   <si>
     <t>logs-hjxh-2018-7-25-day-hima-ori20-percent64</t>
+  </si>
+  <si>
+    <t>经过约24小时，拟合在泛化之上，泛化最好为0.64。后面慢慢分化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh-2018-7-26-day-hima-ori20-percent62</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=11 --input_nums=20 --input_nodes=20 --low_nums=2 --low_nodes=20 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5450 --test_size=1359 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2936,10 +2947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L167"/>
+  <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K164" workbookViewId="0">
-      <selection activeCell="L167" sqref="L167"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9227,6 +9238,44 @@
       </c>
       <c r="L167" s="19" t="s">
         <v>669</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A168" s="16">
+        <v>43307.375</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C168" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E168" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="F168" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="G168" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="H168" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="I168" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="J168" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="K168" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="L168" s="19" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="677">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2518,6 +2518,20 @@
   <si>
     <t>python feed_run.py --output_mode=classes --output_nodes=11 --input_nums=20 --input_nodes=20 --low_nums=2 --low_nodes=20 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5450 --test_size=1359 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练train-hjxh365-2018-4-16-day-high-ori16-date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约10.5小时，拟合开始超过泛化了，泛化最好为0.66。没有什么进步了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-8-13-high-ori16-date-percent64</t>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
   </si>
 </sst>
 </file>
@@ -2947,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L168"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" topLeftCell="K167" workbookViewId="0">
+      <selection activeCell="K169" sqref="K169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9276,6 +9290,44 @@
       </c>
       <c r="L168" s="19" t="s">
         <v>671</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A169" s="16">
+        <v>43294.756944444445</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C169" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="E169" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="F169" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="G169" s="17">
+        <v>0.64</v>
+      </c>
+      <c r="H169" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="I169" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="J169" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="K169" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="L169" s="19" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="681">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2532,6 +2532,21 @@
   </si>
   <si>
     <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_input=True </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约14小时，拟合与泛化重叠，泛化最好为0.67。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=14 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5400 --test_size=1339 --use_biases=yes --use_bn_input=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-8-14-high-ori16-date-percent65</t>
   </si>
 </sst>
 </file>
@@ -2961,10 +2976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L169"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K167" workbookViewId="0">
-      <selection activeCell="K169" sqref="K169"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9328,6 +9343,44 @@
       </c>
       <c r="L169" s="19" t="s">
         <v>675</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A170" s="16">
+        <v>43295.888888888891</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="E170" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="F170" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="G170" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="H170" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="I170" s="17">
+        <v>0.89</v>
+      </c>
+      <c r="J170" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="K170" s="18" t="s">
+        <v>679</v>
+      </c>
+      <c r="L170" s="19" t="s">
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="685">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2547,6 +2547,21 @@
   </si>
   <si>
     <t>logs-hjxh365-8-14-high-ori16-date-percent65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_input=True use_bn_low=True </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=100 low_nums=2 use_biases=yes use_bn_input=True use_bn_low=True </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-8-15-low-ori16-date-percent65</t>
+  </si>
+  <si>
+    <t>经过约15小时，拟合与泛化重叠，泛化最好为0.68。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2976,10 +2991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L170"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="E170" sqref="E170"/>
+      <selection activeCell="J171" sqref="J171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9318,7 +9333,7 @@
         <v>275</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="E169" s="17" t="s">
         <v>673</v>
@@ -9381,6 +9396,44 @@
       </c>
       <c r="L170" s="19" t="s">
         <v>680</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A171" s="16">
+        <v>43296.944444444445</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C171" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="E171" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="F171" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="G171" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="H171" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="I171" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="J171" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="K171" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="L171" s="19" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="690">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2562,6 +2562,24 @@
   <si>
     <t>经过约15小时，拟合与泛化重叠，泛化最好为0.68。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换标签，重新训练365-hjxh-to-autd-2018-8-1-minute-office22-train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约10天，拟合与泛化重合，还未分化，仍需继续训练。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=16 --input_nums=9 --input_nodes=9 --low_nums=2 --low_nodes=9 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=263300 --test_size=65812 --use_biases=yes --use_bn_input=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh-autd-2018-8-15-minute-ori9-percent51</t>
   </si>
 </sst>
 </file>
@@ -2991,10 +3009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="J171" sqref="J171"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="L172" sqref="L172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9434,6 +9452,44 @@
       </c>
       <c r="L171" s="19" t="s">
         <v>683</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A172" s="16">
+        <v>43328.368055555555</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C172" s="17" t="s">
+        <v>685</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="E172" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="F172" s="17">
+        <v>0.51</v>
+      </c>
+      <c r="G172" s="17">
+        <v>0.52</v>
+      </c>
+      <c r="H172" s="17">
+        <v>0.89</v>
+      </c>
+      <c r="I172" s="17">
+        <v>0.89</v>
+      </c>
+      <c r="J172" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="K172" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="L172" s="19" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="695">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2580,6 +2580,24 @@
   </si>
   <si>
     <t>logs-hjxh-autd-2018-8-15-minute-ori9-percent51</t>
+  </si>
+  <si>
+    <t>logs-autd365-8-16-high-ori17-date-percent35</t>
+  </si>
+  <si>
+    <t>经过约15小时，拟合开始超过泛化，泛化最好为0.37。没有什么提高了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练train-autd365-2018-8-13-day-high200-date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=20 --input_nums=17 --input_nodes=17 --low_nums=2 --low_nodes=17 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=40 --learning_rate=0.001 --train_mode=Adadelta --eval_size=2720 --test_size=679 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>20分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3009,10 +3027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L172"/>
+  <dimension ref="A1:L173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="L172" sqref="L172"/>
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9490,6 +9508,44 @@
       </c>
       <c r="L172" s="19" t="s">
         <v>689</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A173" s="16">
+        <v>43297.923611111109</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="E173" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="F173" s="17">
+        <v>0.36</v>
+      </c>
+      <c r="G173" s="17">
+        <v>0.35</v>
+      </c>
+      <c r="H173" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="I173" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="J173" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="K173" s="18" t="s">
+        <v>693</v>
+      </c>
+      <c r="L173" s="19" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="702">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2597,6 +2597,32 @@
   </si>
   <si>
     <t>20分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-365-hjxh-2018-8-14-day-high200-date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约23.5小时，拟合与泛化重叠，泛化最好为0.45。还可以再训练观察。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=20 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5460 --test_size=1365 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>logs-hjxh365-8-17-high200-ori16-date-percent41</t>
+  </si>
+  <si>
+    <t>拟合熵值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛化熵值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3027,10 +3053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L173"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="J176" sqref="J176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3043,13 +3069,13 @@
     <col min="6" max="6" width="5.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="71.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="59.125" customWidth="1"/>
+    <col min="9" max="11" width="7.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="71.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="59.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="27">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3078,16 +3104,22 @@
         <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="82.5" customHeight="1">
+    <row r="2" spans="1:14" ht="82.5" customHeight="1">
       <c r="A2" s="6">
         <v>42981.3125</v>
       </c>
@@ -3109,14 +3141,14 @@
       <c r="G2" s="1">
         <v>0.59</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="82.5" customHeight="1">
+    <row r="3" spans="1:14" ht="82.5" customHeight="1">
       <c r="A3" s="6">
         <v>42981.5625</v>
       </c>
@@ -3138,14 +3170,14 @@
       <c r="G3" s="1">
         <v>0.61</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="82.5" customHeight="1">
+    <row r="4" spans="1:14" ht="82.5" customHeight="1">
       <c r="A4" s="6">
         <v>42982.3125</v>
       </c>
@@ -3167,14 +3199,14 @@
       <c r="G4" s="1">
         <v>0.6</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="82.5" customHeight="1">
+    <row r="5" spans="1:14" ht="82.5" customHeight="1">
       <c r="A5" s="6">
         <v>42982.770833333336</v>
       </c>
@@ -3196,14 +3228,14 @@
       <c r="G5" s="1">
         <v>0.61</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="82.5" customHeight="1">
+    <row r="6" spans="1:14" ht="82.5" customHeight="1">
       <c r="A6" s="6">
         <v>42983.3125</v>
       </c>
@@ -3225,17 +3257,17 @@
       <c r="G6" s="1">
         <v>0.61</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="82.5" customHeight="1">
+    <row r="7" spans="1:14" ht="82.5" customHeight="1">
       <c r="A7" s="6">
         <v>42984.0625</v>
       </c>
@@ -3263,17 +3295,17 @@
       <c r="I7" s="1">
         <v>0.79</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="82.5" customHeight="1">
+    <row r="8" spans="1:14" ht="82.5" customHeight="1">
       <c r="A8" s="6">
         <v>42984.3125</v>
       </c>
@@ -3301,17 +3333,17 @@
       <c r="I8" s="1">
         <v>0.9</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="82.5" customHeight="1">
+    <row r="9" spans="1:14" ht="82.5" customHeight="1">
       <c r="A9" s="6">
         <v>42984.979166666664</v>
       </c>
@@ -3339,17 +3371,17 @@
       <c r="I9" s="1">
         <v>0.98</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="82.5" customHeight="1">
+    <row r="10" spans="1:14" ht="82.5" customHeight="1">
       <c r="A10" s="6">
         <v>42985.3125</v>
       </c>
@@ -3377,17 +3409,17 @@
       <c r="I10" s="1">
         <v>0.9</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="111.75" customHeight="1">
+    <row r="11" spans="1:14" ht="111.75" customHeight="1">
       <c r="A11" s="6">
         <v>42985.9375</v>
       </c>
@@ -3415,17 +3447,17 @@
       <c r="I11" s="1">
         <v>0.99</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="111.75" customHeight="1">
+    <row r="12" spans="1:14" ht="111.75" customHeight="1">
       <c r="A12" s="6">
         <v>42986.3125</v>
       </c>
@@ -3453,17 +3485,17 @@
       <c r="I12" s="1">
         <v>0.95</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="111.75" customHeight="1">
+    <row r="13" spans="1:14" ht="111.75" customHeight="1">
       <c r="A13" s="6">
         <v>42986.979166666664</v>
       </c>
@@ -3491,17 +3523,17 @@
       <c r="I13" s="1">
         <v>0.96</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="111.75" customHeight="1">
+    <row r="14" spans="1:14" ht="111.75" customHeight="1">
       <c r="A14" s="6">
         <v>42987.3125</v>
       </c>
@@ -3529,17 +3561,17 @@
       <c r="I14" s="1">
         <v>0.96</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="82.5" customHeight="1">
+    <row r="15" spans="1:14" ht="82.5" customHeight="1">
       <c r="A15" s="6">
         <v>42991.3125</v>
       </c>
@@ -3567,17 +3599,17 @@
       <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="94.5" customHeight="1">
+    <row r="16" spans="1:14" ht="94.5" customHeight="1">
       <c r="A16" s="6">
         <v>42994.354166666664</v>
       </c>
@@ -3605,17 +3637,17 @@
       <c r="I16" s="1">
         <v>0.82</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="94.5" customHeight="1">
+    <row r="17" spans="1:14" ht="94.5" customHeight="1">
       <c r="A17" s="6">
         <v>42994.354166666664</v>
       </c>
@@ -3643,17 +3675,17 @@
       <c r="I17" s="1">
         <v>0.95</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="94.5" customHeight="1">
+    <row r="18" spans="1:14" ht="94.5" customHeight="1">
       <c r="A18" s="6">
         <v>42994.479166666664</v>
       </c>
@@ -3681,17 +3713,17 @@
       <c r="I18" s="1">
         <v>0.9</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="94.5" customHeight="1">
+    <row r="19" spans="1:14" ht="94.5" customHeight="1">
       <c r="A19" s="6">
         <v>42994.645833333336</v>
       </c>
@@ -3719,17 +3751,17 @@
       <c r="I19" s="1">
         <v>0.85</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="94.5" customHeight="1">
+    <row r="20" spans="1:14" ht="94.5" customHeight="1">
       <c r="A20" s="6">
         <v>42994.645833333336</v>
       </c>
@@ -3757,17 +3789,17 @@
       <c r="I20" s="1">
         <v>0.8</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="M20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="94.5" customHeight="1">
+    <row r="21" spans="1:14" ht="94.5" customHeight="1">
       <c r="A21" s="6">
         <v>42995.729166666664</v>
       </c>
@@ -3795,17 +3827,17 @@
       <c r="I21" s="1">
         <v>0.8</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="M21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="94.5" customHeight="1">
+    <row r="22" spans="1:14" ht="94.5" customHeight="1">
       <c r="A22" s="6">
         <v>42995.854166666664</v>
       </c>
@@ -3833,17 +3865,17 @@
       <c r="I22" s="1">
         <v>0.87</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="94.5" customHeight="1">
+    <row r="23" spans="1:14" ht="94.5" customHeight="1">
       <c r="A23" s="6">
         <v>42996.3125</v>
       </c>
@@ -3871,17 +3903,17 @@
       <c r="I23" s="1">
         <v>0.99299999999999999</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="M23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="94.5" customHeight="1">
+    <row r="24" spans="1:14" ht="94.5" customHeight="1">
       <c r="A24" s="6">
         <v>42997.854166666664</v>
       </c>
@@ -3909,17 +3941,17 @@
       <c r="I24" s="1">
         <v>0.9</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="94.5" customHeight="1">
+    <row r="25" spans="1:14" ht="94.5" customHeight="1">
       <c r="A25" s="6">
         <v>42998.854166666664</v>
       </c>
@@ -3947,17 +3979,17 @@
       <c r="I25" s="1">
         <v>0.89</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="M25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="94.5" customHeight="1">
+    <row r="26" spans="1:14" ht="94.5" customHeight="1">
       <c r="A26" s="6">
         <v>42999.3125</v>
       </c>
@@ -3985,17 +4017,17 @@
       <c r="I26" s="1">
         <v>0.997</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L26" t="s">
+      <c r="N26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="94.5" customHeight="1">
+    <row r="27" spans="1:14" ht="94.5" customHeight="1">
       <c r="A27" s="6">
         <v>43001.645833333336</v>
       </c>
@@ -4023,17 +4055,17 @@
       <c r="I27" s="1">
         <v>0.97</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="M27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="82.5" customHeight="1">
+    <row r="28" spans="1:14" ht="82.5" customHeight="1">
       <c r="A28" s="6">
         <v>43003.3125</v>
       </c>
@@ -4061,17 +4093,17 @@
       <c r="I28" s="1">
         <v>0.95</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="M28" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="94.5" customHeight="1">
+    <row r="29" spans="1:14" ht="94.5" customHeight="1">
       <c r="A29" s="6">
         <v>43003.895833333336</v>
       </c>
@@ -4099,17 +4131,17 @@
       <c r="I29" s="1">
         <v>0.97</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="L29" t="s">
+      <c r="N29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="94.5" customHeight="1">
+    <row r="30" spans="1:14" ht="94.5" customHeight="1">
       <c r="A30" s="6">
         <v>43004.3125</v>
       </c>
@@ -4137,17 +4169,17 @@
       <c r="I30" s="1">
         <v>1</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L30" t="s">
+      <c r="N30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="94.5" customHeight="1">
+    <row r="31" spans="1:14" ht="94.5" customHeight="1">
       <c r="A31" s="6">
         <v>43004.520833333336</v>
       </c>
@@ -4175,17 +4207,17 @@
       <c r="I31" s="1">
         <v>0.99</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="M31" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N31" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="94.5" customHeight="1">
+    <row r="32" spans="1:14" ht="94.5" customHeight="1">
       <c r="A32" s="6">
         <v>43005.645833333336</v>
       </c>
@@ -4213,17 +4245,17 @@
       <c r="I32" s="1">
         <v>1</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="M32" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="L32" t="s">
+      <c r="N32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="94.5" customHeight="1">
+    <row r="33" spans="1:14" ht="94.5" customHeight="1">
       <c r="A33" s="6">
         <v>43006.854166666664</v>
       </c>
@@ -4251,17 +4283,17 @@
       <c r="I33" s="1">
         <v>0.96</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="M33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L33" t="s">
+      <c r="N33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="113.25" customHeight="1">
+    <row r="34" spans="1:14" ht="113.25" customHeight="1">
       <c r="A34" s="6">
         <v>43007.3125</v>
       </c>
@@ -4289,17 +4321,17 @@
       <c r="I34" s="1">
         <v>0.96</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="M34" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L34" t="s">
+      <c r="N34" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="82.5" customHeight="1">
+    <row r="35" spans="1:14" ht="82.5" customHeight="1">
       <c r="A35" s="6">
         <v>43007.479166666664</v>
       </c>
@@ -4327,17 +4359,17 @@
       <c r="I35" s="1">
         <v>0.91</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="L35" t="s">
+      <c r="N35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="82.5" customHeight="1">
+    <row r="36" spans="1:14" ht="82.5" customHeight="1">
       <c r="A36" s="6">
         <v>43007.854166666664</v>
       </c>
@@ -4365,17 +4397,17 @@
       <c r="I36" s="1">
         <v>0.88</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="82.5" customHeight="1">
+    <row r="37" spans="1:14" ht="82.5" customHeight="1">
       <c r="A37" s="6">
         <v>43008.333333333336</v>
       </c>
@@ -4403,17 +4435,17 @@
       <c r="I37" s="1">
         <v>0.88</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="M37" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="L37" t="s">
+      <c r="N37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="82.5" customHeight="1">
+    <row r="38" spans="1:14" ht="82.5" customHeight="1">
       <c r="A38" s="6">
         <v>43008.5</v>
       </c>
@@ -4441,17 +4473,17 @@
       <c r="I38" s="1">
         <v>0.91</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="M38" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="82.5" customHeight="1">
+    <row r="39" spans="1:14" ht="82.5" customHeight="1">
       <c r="A39" s="6">
         <v>43009.333333333336</v>
       </c>
@@ -4479,17 +4511,17 @@
       <c r="I39" s="1">
         <v>0.96</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="M39" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="L39" t="s">
+      <c r="N39" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="94.5" customHeight="1">
+    <row r="40" spans="1:14" ht="94.5" customHeight="1">
       <c r="A40" s="6">
         <v>43010.333333333336</v>
       </c>
@@ -4517,17 +4549,17 @@
       <c r="I40" s="1">
         <v>0.96</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="M40" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="L40" t="s">
+      <c r="N40" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="94.5" customHeight="1">
+    <row r="41" spans="1:14" ht="94.5" customHeight="1">
       <c r="A41" s="6">
         <v>43010.333333333336</v>
       </c>
@@ -4555,17 +4587,17 @@
       <c r="I41" s="1">
         <v>0.99</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="M41" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="94.5" customHeight="1">
+    <row r="42" spans="1:14" ht="94.5" customHeight="1">
       <c r="A42" s="6">
         <v>43011.6875</v>
       </c>
@@ -4593,17 +4625,17 @@
       <c r="I42" s="1">
         <v>0.75</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="M42" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="L42" t="s">
+      <c r="N42" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="94.5" customHeight="1">
+    <row r="43" spans="1:14" ht="94.5" customHeight="1">
       <c r="A43" s="6">
         <v>43012.354166666664</v>
       </c>
@@ -4631,17 +4663,17 @@
       <c r="I43" s="1">
         <v>0.95</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="M43" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="L43" t="s">
+      <c r="N43" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="94.5" customHeight="1">
+    <row r="44" spans="1:14" ht="94.5" customHeight="1">
       <c r="A44" s="6">
         <v>43012.354166666664</v>
       </c>
@@ -4669,17 +4701,17 @@
       <c r="I44" s="1">
         <v>0.7</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="M44" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L44" t="s">
+      <c r="N44" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="94.5" customHeight="1">
+    <row r="45" spans="1:14" ht="94.5" customHeight="1">
       <c r="A45" s="6">
         <v>43013.354166666664</v>
       </c>
@@ -4707,17 +4739,17 @@
       <c r="I45" s="1">
         <v>0.96</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="L45" t="s">
+      <c r="N45" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="94.5" customHeight="1">
+    <row r="46" spans="1:14" ht="94.5" customHeight="1">
       <c r="A46" s="6">
         <v>43013.354166666664</v>
       </c>
@@ -4745,17 +4777,17 @@
       <c r="I46" s="1">
         <v>0.93</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="M46" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L46" t="s">
+      <c r="N46" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="94.5" customHeight="1">
+    <row r="47" spans="1:14" ht="94.5" customHeight="1">
       <c r="A47" s="6">
         <v>43014.395833333336</v>
       </c>
@@ -4783,17 +4815,17 @@
       <c r="I47" s="1">
         <v>0.78</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="M47" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="L47" t="s">
+      <c r="N47" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="94.5" customHeight="1">
+    <row r="48" spans="1:14" ht="94.5" customHeight="1">
       <c r="A48" s="6">
         <v>43014.395833333336</v>
       </c>
@@ -4821,17 +4853,17 @@
       <c r="I48" s="1">
         <v>0.98</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="M48" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="L48" t="s">
+      <c r="N48" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="94.5" customHeight="1">
+    <row r="49" spans="1:14" ht="94.5" customHeight="1">
       <c r="A49" s="6">
         <v>43015.395833333336</v>
       </c>
@@ -4859,17 +4891,17 @@
       <c r="I49" s="1">
         <v>0.95499999999999996</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="M49" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="L49" t="s">
+      <c r="N49" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="94.5" customHeight="1">
+    <row r="50" spans="1:14" ht="94.5" customHeight="1">
       <c r="A50" s="6">
         <v>43015.645833333336</v>
       </c>
@@ -4897,17 +4929,17 @@
       <c r="I50" s="1">
         <v>0.97</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="M50" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="L50" t="s">
+      <c r="N50" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="94.5" customHeight="1">
+    <row r="51" spans="1:14" ht="94.5" customHeight="1">
       <c r="A51" s="6">
         <v>43015.520833333336</v>
       </c>
@@ -4935,17 +4967,17 @@
       <c r="I51" s="1">
         <v>0.97</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="M51" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="L51" t="s">
+      <c r="N51" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="94.5" customHeight="1">
+    <row r="52" spans="1:14" ht="94.5" customHeight="1">
       <c r="A52" s="6">
         <v>43015.729166666664</v>
       </c>
@@ -4973,17 +5005,17 @@
       <c r="I52" s="1">
         <v>0.99</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="M52" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="L52" t="s">
+      <c r="N52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="94.5" customHeight="1">
+    <row r="53" spans="1:14" ht="94.5" customHeight="1">
       <c r="A53" s="6">
         <v>43015.895833333336</v>
       </c>
@@ -5011,17 +5043,17 @@
       <c r="I53" s="1">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="M53" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="L53" t="s">
+      <c r="N53" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="94.5" customHeight="1">
+    <row r="54" spans="1:14" ht="94.5" customHeight="1">
       <c r="A54" s="6">
         <v>43015.729166666664</v>
       </c>
@@ -5049,17 +5081,17 @@
       <c r="I54" s="1">
         <v>0.96</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="M54" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="L54" t="s">
+      <c r="N54" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="94.5" customHeight="1">
+    <row r="55" spans="1:14" ht="94.5" customHeight="1">
       <c r="A55" s="6">
         <v>43016.395833333336</v>
       </c>
@@ -5087,17 +5119,17 @@
       <c r="I55" s="1">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="M55" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="L55" t="s">
+      <c r="N55" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="94.5" customHeight="1">
+    <row r="56" spans="1:14" ht="94.5" customHeight="1">
       <c r="A56" s="6">
         <v>43016.395833333336</v>
       </c>
@@ -5125,17 +5157,17 @@
       <c r="I56" s="1">
         <v>0.85</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="M56" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="L56" t="s">
+      <c r="N56" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="94.5" customHeight="1">
+    <row r="57" spans="1:14" ht="94.5" customHeight="1">
       <c r="A57" s="6">
         <v>43017.3125</v>
       </c>
@@ -5163,17 +5195,17 @@
       <c r="I57" s="1">
         <v>0.96</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="L57" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="M57" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="L57" t="s">
+      <c r="N57" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="94.5" customHeight="1">
+    <row r="58" spans="1:14" ht="94.5" customHeight="1">
       <c r="A58" s="6">
         <v>43018.3125</v>
       </c>
@@ -5201,17 +5233,17 @@
       <c r="I58" s="1">
         <v>0.97</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="M58" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="L58" t="s">
+      <c r="N58" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="94.5" customHeight="1">
+    <row r="59" spans="1:14" ht="94.5" customHeight="1">
       <c r="A59" s="6">
         <v>43019.3125</v>
       </c>
@@ -5239,17 +5271,17 @@
       <c r="I59" s="1">
         <v>0.97</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="M59" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="L59" t="s">
+      <c r="N59" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="94.5" customHeight="1">
+    <row r="60" spans="1:14" ht="94.5" customHeight="1">
       <c r="A60" s="6">
         <v>43020.3125</v>
       </c>
@@ -5277,17 +5309,17 @@
       <c r="I60" s="1">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="M60" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="L60" t="s">
+      <c r="N60" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="94.5" customHeight="1">
+    <row r="61" spans="1:14" ht="94.5" customHeight="1">
       <c r="A61" s="6">
         <v>43021.3125</v>
       </c>
@@ -5315,17 +5347,17 @@
       <c r="I61" s="1">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="M61" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="L61" t="s">
+      <c r="N61" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="82.5" customHeight="1">
+    <row r="62" spans="1:14" ht="82.5" customHeight="1">
       <c r="A62" s="6">
         <v>43023.3125</v>
       </c>
@@ -5353,17 +5385,17 @@
       <c r="I62" s="1">
         <v>0.98</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="M62" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="L62" t="s">
+      <c r="N62" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="82.5" customHeight="1">
+    <row r="63" spans="1:14" ht="82.5" customHeight="1">
       <c r="A63" s="6">
         <v>43023.729166666664</v>
       </c>
@@ -5391,17 +5423,17 @@
       <c r="I63" s="1">
         <v>0.999</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="M63" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="L63" t="s">
+      <c r="N63" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="82.5" customHeight="1">
+    <row r="64" spans="1:14" ht="82.5" customHeight="1">
       <c r="A64" s="6">
         <v>43024.3125</v>
       </c>
@@ -5429,17 +5461,17 @@
       <c r="I64" s="1">
         <v>1</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="M64" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="L64" t="s">
+      <c r="N64" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="82.5" customHeight="1">
+    <row r="65" spans="1:14" ht="82.5" customHeight="1">
       <c r="A65" s="6">
         <v>43024.854166666664</v>
       </c>
@@ -5467,17 +5499,17 @@
       <c r="I65" s="1">
         <v>0.999</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="M65" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="L65" t="s">
+      <c r="N65" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="82.5" customHeight="1">
+    <row r="66" spans="1:14" ht="82.5" customHeight="1">
       <c r="A66" s="6">
         <v>43025.854166666664</v>
       </c>
@@ -5505,22 +5537,22 @@
       <c r="I66" s="1">
         <v>0.82</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="M66" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="L66" t="s">
+      <c r="N66" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="31.5" customHeight="1">
+    <row r="67" spans="1:14" ht="31.5" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+    <row r="68" spans="1:14" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A68" s="8">
         <v>43213.034722222219</v>
       </c>
@@ -5548,17 +5580,19 @@
       <c r="I68" s="9">
         <v>0.97</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="M68" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="L68" s="11" t="s">
+      <c r="N68" s="11" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+    <row r="69" spans="1:14" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A69" s="8">
         <v>43213.034722222219</v>
       </c>
@@ -5586,17 +5620,19 @@
       <c r="I69" s="9">
         <v>0.94</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="M69" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="L69" s="11" t="s">
+      <c r="N69" s="11" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="82.5" customHeight="1">
+    <row r="70" spans="1:14" ht="82.5" customHeight="1">
       <c r="A70" s="6">
         <v>43213.034722222219</v>
       </c>
@@ -5624,17 +5660,17 @@
       <c r="I70" s="1">
         <v>0.89</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="M70" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="L70" t="s">
+      <c r="N70" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
+    <row r="71" spans="1:14" s="15" customFormat="1" ht="82.5" customHeight="1">
       <c r="A71" s="12">
         <v>43214.347222222219</v>
       </c>
@@ -5662,17 +5698,19 @@
       <c r="I71" s="13">
         <v>1</v>
       </c>
-      <c r="J71" s="13" t="s">
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="M71" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="L71" s="15" t="s">
+      <c r="N71" s="15" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="82.5" customHeight="1">
+    <row r="72" spans="1:14" ht="82.5" customHeight="1">
       <c r="A72" s="6">
         <v>43214.947916666664</v>
       </c>
@@ -5700,17 +5738,17 @@
       <c r="I72" s="1">
         <v>0.90500000000000003</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="M72" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="L72" t="s">
+      <c r="N72" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="82.5" customHeight="1">
+    <row r="73" spans="1:14" ht="82.5" customHeight="1">
       <c r="A73" s="6">
         <v>43215.423611111109</v>
       </c>
@@ -5738,17 +5776,17 @@
       <c r="I73" s="1">
         <v>1</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="L73" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="M73" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="L73" t="s">
+      <c r="N73" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="82.5" customHeight="1">
+    <row r="74" spans="1:14" ht="82.5" customHeight="1">
       <c r="A74" s="6">
         <v>43215.606944444444</v>
       </c>
@@ -5776,17 +5814,17 @@
       <c r="I74" s="1">
         <v>0.97</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="M74" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="L74" t="s">
+      <c r="N74" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="82.5" customHeight="1">
+    <row r="75" spans="1:14" ht="82.5" customHeight="1">
       <c r="A75" s="6">
         <v>43215.916666666664</v>
       </c>
@@ -5814,17 +5852,17 @@
       <c r="I75" s="1">
         <v>0.91</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="L75" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="M75" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="L75" t="s">
+      <c r="N75" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="82.5" customHeight="1">
+    <row r="76" spans="1:14" ht="82.5" customHeight="1">
       <c r="A76" s="6">
         <v>43216.930555555555</v>
       </c>
@@ -5852,17 +5890,17 @@
       <c r="I76" s="1">
         <v>0.79</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="M76" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="L76" t="s">
+      <c r="N76" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="82.5" customHeight="1">
+    <row r="77" spans="1:14" ht="82.5" customHeight="1">
       <c r="A77" s="6">
         <v>43217.356944444444</v>
       </c>
@@ -5890,17 +5928,17 @@
       <c r="I77" s="1">
         <v>0.94</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="M77" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="L77" t="s">
+      <c r="N77" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="82.5" customHeight="1">
+    <row r="78" spans="1:14" ht="82.5" customHeight="1">
       <c r="A78" s="6">
         <v>43217.958333333336</v>
       </c>
@@ -5928,17 +5966,17 @@
       <c r="I78" s="1">
         <v>0.97</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="M78" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="L78" t="s">
+      <c r="N78" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
+    <row r="79" spans="1:14" s="15" customFormat="1" ht="82.5" customHeight="1">
       <c r="A79" s="12">
         <v>43218.361111111109</v>
       </c>
@@ -5966,17 +6004,19 @@
       <c r="I79" s="13">
         <v>0.99</v>
       </c>
-      <c r="J79" s="13" t="s">
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="K79" s="14" t="s">
+      <c r="M79" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="L79" s="15" t="s">
+      <c r="N79" s="15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="82.5" customHeight="1">
+    <row r="80" spans="1:14" ht="82.5" customHeight="1">
       <c r="A80" s="6">
         <v>43220.923611111109</v>
       </c>
@@ -6004,17 +6044,17 @@
       <c r="I80" s="1">
         <v>0.95</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="M80" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="L80" t="s">
+      <c r="N80" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="82.5" customHeight="1">
+    <row r="81" spans="1:14" ht="82.5" customHeight="1">
       <c r="A81" s="6">
         <v>43220.965277777781</v>
       </c>
@@ -6042,17 +6082,17 @@
       <c r="I81" s="1">
         <v>0.92</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="M81" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="L81" t="s">
+      <c r="N81" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="82.5" customHeight="1">
+    <row r="82" spans="1:14" ht="82.5" customHeight="1">
       <c r="A82" s="6">
         <v>43221.986111111109</v>
       </c>
@@ -6080,17 +6120,17 @@
       <c r="I82" s="1">
         <v>0.94</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="L82" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="M82" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="L82" t="s">
+      <c r="N82" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
+    <row r="83" spans="1:14" s="15" customFormat="1" ht="82.5" customHeight="1">
       <c r="A83" s="12">
         <v>43222.347222222219</v>
       </c>
@@ -6118,17 +6158,19 @@
       <c r="I83" s="13">
         <v>0.99</v>
       </c>
-      <c r="J83" s="13" t="s">
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="K83" s="14" t="s">
+      <c r="M83" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="L83" s="15" t="s">
+      <c r="N83" s="15" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="82.5" customHeight="1">
+    <row r="84" spans="1:14" ht="82.5" customHeight="1">
       <c r="A84" s="6">
         <v>43222.708333333336</v>
       </c>
@@ -6156,17 +6198,17 @@
       <c r="I84" s="1">
         <v>0.93</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="L84" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="M84" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="L84" t="s">
+      <c r="N84" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
+    <row r="85" spans="1:14" s="15" customFormat="1" ht="82.5" customHeight="1">
       <c r="A85" s="12">
         <v>43222.847222222219</v>
       </c>
@@ -6194,17 +6236,19 @@
       <c r="I85" s="13">
         <v>0.99</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="K85" s="14" t="s">
+      <c r="M85" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="L85" s="15" t="s">
+      <c r="N85" s="15" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="82.5" customHeight="1">
+    <row r="86" spans="1:14" ht="82.5" customHeight="1">
       <c r="A86" s="6">
         <v>43223.375</v>
       </c>
@@ -6232,17 +6276,17 @@
       <c r="I86" s="1">
         <v>0.98</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="L86" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="M86" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="L86" t="s">
+      <c r="N86" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="82.5" customHeight="1">
+    <row r="87" spans="1:14" ht="82.5" customHeight="1">
       <c r="A87" s="6">
         <v>43223.944444444445</v>
       </c>
@@ -6270,17 +6314,17 @@
       <c r="I87" s="1">
         <v>0.98499999999999999</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="L87" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="M87" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="L87" t="s">
+      <c r="N87" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="82.5" customHeight="1">
+    <row r="88" spans="1:14" ht="82.5" customHeight="1">
       <c r="A88" s="6">
         <v>43224.375</v>
       </c>
@@ -6308,17 +6352,17 @@
       <c r="I88" s="1">
         <v>0.98</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="L88" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="K88" s="4" t="s">
+      <c r="M88" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="L88" t="s">
+      <c r="N88" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="82.5" customHeight="1">
+    <row r="89" spans="1:14" ht="82.5" customHeight="1">
       <c r="A89" s="6">
         <v>43224.965277777781</v>
       </c>
@@ -6346,17 +6390,17 @@
       <c r="I89" s="1">
         <v>0.999</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="L89" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="M89" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="L89" t="s">
+      <c r="N89" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="82.5" customHeight="1">
+    <row r="90" spans="1:14" ht="82.5" customHeight="1">
       <c r="A90" s="6">
         <v>43224.708333333336</v>
       </c>
@@ -6384,17 +6428,17 @@
       <c r="I90" s="1">
         <v>0.98</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="L90" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="K90" s="4" t="s">
+      <c r="M90" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="L90" t="s">
+      <c r="N90" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="82.5" customHeight="1">
+    <row r="91" spans="1:14" ht="82.5" customHeight="1">
       <c r="A91" s="6">
         <v>43225.708333333336</v>
       </c>
@@ -6422,17 +6466,17 @@
       <c r="I91" s="1">
         <v>0.98</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="L91" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="M91" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="L91" t="s">
+      <c r="N91" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="82.5" customHeight="1">
+    <row r="92" spans="1:14" ht="82.5" customHeight="1">
       <c r="A92" s="6">
         <v>43225.958333333336</v>
       </c>
@@ -6460,17 +6504,17 @@
       <c r="I92" s="1">
         <v>1</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="L92" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="M92" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="L92" t="s">
+      <c r="N92" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
+    <row r="93" spans="1:14" s="15" customFormat="1" ht="82.5" customHeight="1">
       <c r="A93" s="12">
         <v>43226.826388888891</v>
       </c>
@@ -6498,17 +6542,19 @@
       <c r="I93" s="13">
         <v>0.98</v>
       </c>
-      <c r="J93" s="13" t="s">
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="K93" s="14" t="s">
+      <c r="M93" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="L93" s="15" t="s">
+      <c r="N93" s="15" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
+    <row r="94" spans="1:14" s="15" customFormat="1" ht="82.5" customHeight="1">
       <c r="A94" s="12">
         <v>43225.708333333336</v>
       </c>
@@ -6536,17 +6582,19 @@
       <c r="I94" s="13">
         <v>0.98</v>
       </c>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="K94" s="14" t="s">
+      <c r="M94" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="L94" s="15" t="s">
+      <c r="N94" s="15" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="15" customFormat="1" ht="82.5" customHeight="1">
+    <row r="95" spans="1:14" s="15" customFormat="1" ht="82.5" customHeight="1">
       <c r="A95" s="12">
         <v>43227.375</v>
       </c>
@@ -6574,17 +6622,19 @@
       <c r="I95" s="13">
         <v>0.99</v>
       </c>
-      <c r="J95" s="13" t="s">
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="K95" s="14" t="s">
+      <c r="M95" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="L95" s="15" t="s">
+      <c r="N95" s="15" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="82.5" customHeight="1">
+    <row r="96" spans="1:14" ht="82.5" customHeight="1">
       <c r="A96" s="6">
         <v>43228.5</v>
       </c>
@@ -6612,17 +6662,17 @@
       <c r="I96" s="1">
         <v>0.91</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="L96" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="M96" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="L96" t="s">
+      <c r="N96" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="82.5" customHeight="1">
+    <row r="97" spans="1:14" ht="82.5" customHeight="1">
       <c r="A97" s="6">
         <v>43229.347222222219</v>
       </c>
@@ -6650,17 +6700,17 @@
       <c r="I97" s="1">
         <v>0.86</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="L97" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K97" s="4" t="s">
+      <c r="M97" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="L97" t="s">
+      <c r="N97" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="82.5" customHeight="1">
+    <row r="98" spans="1:14" ht="82.5" customHeight="1">
       <c r="A98" s="6">
         <v>43229.645833333336</v>
       </c>
@@ -6688,17 +6738,17 @@
       <c r="I98" s="1">
         <v>0.83</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="L98" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="K98" s="4" t="s">
+      <c r="M98" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="L98" t="s">
+      <c r="N98" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="82.5" customHeight="1">
+    <row r="99" spans="1:14" ht="82.5" customHeight="1">
       <c r="A99" s="6">
         <v>43230.354166666664</v>
       </c>
@@ -6726,17 +6776,17 @@
       <c r="I99" s="1">
         <v>0.85</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="L99" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="K99" s="4" t="s">
+      <c r="M99" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="L99" t="s">
+      <c r="N99" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="82.5" customHeight="1">
+    <row r="100" spans="1:14" ht="82.5" customHeight="1">
       <c r="A100" s="6">
         <v>43230.475694444445</v>
       </c>
@@ -6764,17 +6814,17 @@
       <c r="I100" s="1">
         <v>0.96</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="L100" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="K100" s="4" t="s">
+      <c r="M100" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="L100" t="s">
+      <c r="N100" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="82.5" customHeight="1">
+    <row r="101" spans="1:14" ht="82.5" customHeight="1">
       <c r="A101" s="6">
         <v>43230.680555555555</v>
       </c>
@@ -6802,17 +6852,17 @@
       <c r="I101" s="1">
         <v>0.95</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="L101" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="K101" s="4" t="s">
+      <c r="M101" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="L101" t="s">
+      <c r="N101" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="82.5" customHeight="1">
+    <row r="102" spans="1:14" ht="82.5" customHeight="1">
       <c r="A102" s="6">
         <v>43231.548611111109</v>
       </c>
@@ -6840,17 +6890,17 @@
       <c r="I102" s="1">
         <v>0.999</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="L102" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="K102" s="4" t="s">
+      <c r="M102" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="L102" t="s">
+      <c r="N102" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="82.5" customHeight="1">
+    <row r="103" spans="1:14" ht="82.5" customHeight="1">
       <c r="A103" s="6">
         <v>43232.708333333336</v>
       </c>
@@ -6878,17 +6928,17 @@
       <c r="I103" s="1">
         <v>0.98</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="L103" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="K103" s="4" t="s">
+      <c r="M103" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="L103" t="s">
+      <c r="N103" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="82.5" customHeight="1">
+    <row r="104" spans="1:14" ht="82.5" customHeight="1">
       <c r="A104" s="6">
         <v>43233.875</v>
       </c>
@@ -6916,17 +6966,17 @@
       <c r="I104" s="1">
         <v>0.97</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="L104" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="K104" s="4" t="s">
+      <c r="M104" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="L104" t="s">
+      <c r="N104" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="82.5" customHeight="1">
+    <row r="105" spans="1:14" ht="82.5" customHeight="1">
       <c r="A105" s="6">
         <v>43234.722222222219</v>
       </c>
@@ -6954,17 +7004,17 @@
       <c r="I105" s="1">
         <v>1</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="L105" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="K105" s="4" t="s">
+      <c r="M105" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="L105" t="s">
+      <c r="N105" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="82.5" customHeight="1">
+    <row r="106" spans="1:14" ht="82.5" customHeight="1">
       <c r="A106" s="6">
         <v>43234.909722222219</v>
       </c>
@@ -6992,17 +7042,17 @@
       <c r="I106" s="1">
         <v>0.96</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="L106" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="K106" s="4" t="s">
+      <c r="M106" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="L106" t="s">
+      <c r="N106" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="82.5" customHeight="1">
+    <row r="107" spans="1:14" ht="82.5" customHeight="1">
       <c r="A107" s="6">
         <v>43235.340277777781</v>
       </c>
@@ -7030,17 +7080,17 @@
       <c r="I107" s="1">
         <v>0.99</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="L107" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="K107" s="4" t="s">
+      <c r="M107" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="L107" t="s">
+      <c r="N107" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="82.5" customHeight="1">
+    <row r="108" spans="1:14" ht="82.5" customHeight="1">
       <c r="A108" s="6">
         <v>43235.972222222219</v>
       </c>
@@ -7068,17 +7118,17 @@
       <c r="I108" s="1">
         <v>0.94</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="L108" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="K108" s="4" t="s">
+      <c r="M108" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="L108" t="s">
+      <c r="N108" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="82.5" customHeight="1">
+    <row r="109" spans="1:14" ht="82.5" customHeight="1">
       <c r="A109" s="6">
         <v>43236.347222222219</v>
       </c>
@@ -7106,17 +7156,17 @@
       <c r="I109" s="1">
         <v>0.999</v>
       </c>
-      <c r="J109" s="1" t="s">
+      <c r="L109" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="K109" s="4" t="s">
+      <c r="M109" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="L109" t="s">
+      <c r="N109" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="82.5" customHeight="1">
+    <row r="110" spans="1:14" ht="82.5" customHeight="1">
       <c r="A110" s="6">
         <v>43236.75</v>
       </c>
@@ -7144,17 +7194,17 @@
       <c r="I110" s="1">
         <v>0.998</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="L110" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="K110" s="4" t="s">
+      <c r="M110" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="L110" t="s">
+      <c r="N110" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="82.5" customHeight="1">
+    <row r="111" spans="1:14" ht="82.5" customHeight="1">
       <c r="A111" s="6">
         <v>43239.381944444445</v>
       </c>
@@ -7182,17 +7232,17 @@
       <c r="I111" s="1">
         <v>0.98</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="L111" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K111" s="4" t="s">
+      <c r="M111" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="L111" t="s">
+      <c r="N111" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="82.5" customHeight="1">
+    <row r="112" spans="1:14" ht="82.5" customHeight="1">
       <c r="A112" s="6">
         <v>43240.888888888891</v>
       </c>
@@ -7220,17 +7270,17 @@
       <c r="I112" s="1">
         <v>0.96</v>
       </c>
-      <c r="J112" s="1" t="s">
+      <c r="L112" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K112" s="4" t="s">
+      <c r="M112" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="L112" t="s">
+      <c r="N112" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="82.5" customHeight="1">
+    <row r="113" spans="1:14" ht="82.5" customHeight="1">
       <c r="A113" s="6">
         <v>43241.340277777781</v>
       </c>
@@ -7258,17 +7308,17 @@
       <c r="I113" s="1">
         <v>0.95</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="L113" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="K113" s="4" t="s">
+      <c r="M113" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="L113" t="s">
+      <c r="N113" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="82.5" customHeight="1">
+    <row r="114" spans="1:14" ht="82.5" customHeight="1">
       <c r="A114" s="6">
         <v>43241.958333333336</v>
       </c>
@@ -7296,17 +7346,17 @@
       <c r="I114" s="1">
         <v>0.97</v>
       </c>
-      <c r="J114" s="1" t="s">
+      <c r="L114" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="K114" s="4" t="s">
+      <c r="M114" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="L114" t="s">
+      <c r="N114" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="82.5" customHeight="1">
+    <row r="115" spans="1:14" ht="82.5" customHeight="1">
       <c r="A115" s="6">
         <v>43242.375</v>
       </c>
@@ -7334,17 +7384,17 @@
       <c r="I115" s="1">
         <v>0.99</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="L115" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="K115" s="4" t="s">
+      <c r="M115" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="L115" t="s">
+      <c r="N115" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="82.5" customHeight="1">
+    <row r="116" spans="1:14" ht="82.5" customHeight="1">
       <c r="A116" s="6">
         <v>43242.944444444445</v>
       </c>
@@ -7372,17 +7422,17 @@
       <c r="I116" s="1">
         <v>0.85</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="L116" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="K116" s="4" t="s">
+      <c r="M116" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="L116" t="s">
+      <c r="N116" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="82.5" customHeight="1">
+    <row r="117" spans="1:14" ht="82.5" customHeight="1">
       <c r="A117" s="6">
         <v>43243.361111111109</v>
       </c>
@@ -7410,17 +7460,17 @@
       <c r="I117" s="1">
         <v>0.99</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="L117" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="K117" s="4" t="s">
+      <c r="M117" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="L117" t="s">
+      <c r="N117" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="82.5" customHeight="1">
+    <row r="118" spans="1:14" ht="82.5" customHeight="1">
       <c r="A118" s="6">
         <v>43243.958333333336</v>
       </c>
@@ -7448,17 +7498,17 @@
       <c r="I118" s="1">
         <v>0.86</v>
       </c>
-      <c r="J118" s="1" t="s">
+      <c r="L118" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="K118" s="4" t="s">
+      <c r="M118" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="L118" t="s">
+      <c r="N118" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="82.5" customHeight="1">
+    <row r="119" spans="1:14" ht="82.5" customHeight="1">
       <c r="A119" s="6">
         <v>43244.368055555555</v>
       </c>
@@ -7486,17 +7536,17 @@
       <c r="I119" s="1">
         <v>0.91</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="L119" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="K119" s="4" t="s">
+      <c r="M119" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="L119" t="s">
+      <c r="N119" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="82.5" customHeight="1">
+    <row r="120" spans="1:14" ht="82.5" customHeight="1">
       <c r="A120" s="6">
         <v>43244.930555555555</v>
       </c>
@@ -7524,17 +7574,17 @@
       <c r="I120" s="1">
         <v>0.86</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="L120" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="K120" s="4" t="s">
+      <c r="M120" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="L120" t="s">
+      <c r="N120" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="82.5" customHeight="1">
+    <row r="121" spans="1:14" ht="82.5" customHeight="1">
       <c r="A121" s="6">
         <v>43245.972222222219</v>
       </c>
@@ -7562,17 +7612,17 @@
       <c r="I121" s="1">
         <v>0.82</v>
       </c>
-      <c r="J121" s="1" t="s">
+      <c r="L121" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="K121" s="4" t="s">
+      <c r="M121" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="L121" t="s">
+      <c r="N121" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="82.5" customHeight="1">
+    <row r="122" spans="1:14" ht="82.5" customHeight="1">
       <c r="A122" s="6">
         <v>43246.708333333336</v>
       </c>
@@ -7600,17 +7650,17 @@
       <c r="I122" s="1">
         <v>0.98</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="L122" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K122" s="4" t="s">
+      <c r="M122" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="L122" t="s">
+      <c r="N122" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="82.5" customHeight="1">
+    <row r="123" spans="1:14" ht="82.5" customHeight="1">
       <c r="A123" s="6">
         <v>43246.895833333336</v>
       </c>
@@ -7638,17 +7688,17 @@
       <c r="I123" s="1">
         <v>0.99</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="L123" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="K123" s="4" t="s">
+      <c r="M123" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="L123" t="s">
+      <c r="N123" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="82.5" customHeight="1">
+    <row r="124" spans="1:14" ht="82.5" customHeight="1">
       <c r="A124" s="6">
         <v>43247.930555555555</v>
       </c>
@@ -7676,17 +7726,17 @@
       <c r="I124" s="1">
         <v>0.94</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="L124" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="K124" s="4" t="s">
+      <c r="M124" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="L124" t="s">
+      <c r="N124" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+    <row r="125" spans="1:14" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A125" s="8">
         <v>43248.347222222219</v>
       </c>
@@ -7714,17 +7764,19 @@
       <c r="I125" s="9">
         <v>0.97</v>
       </c>
-      <c r="J125" s="9" t="s">
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="K125" s="10" t="s">
+      <c r="M125" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="L125" s="11" t="s">
+      <c r="N125" s="11" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="82.5" customHeight="1">
+    <row r="126" spans="1:14" ht="82.5" customHeight="1">
       <c r="A126" s="6">
         <v>43249.006944444445</v>
       </c>
@@ -7752,17 +7804,17 @@
       <c r="I126" s="1">
         <v>0.95</v>
       </c>
-      <c r="J126" s="1" t="s">
+      <c r="L126" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="K126" s="4" t="s">
+      <c r="M126" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="L126" t="s">
+      <c r="N126" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="82.5" customHeight="1">
+    <row r="127" spans="1:14" ht="82.5" customHeight="1">
       <c r="A127" s="6">
         <v>43251.972222222219</v>
       </c>
@@ -7790,17 +7842,17 @@
       <c r="I127" s="1">
         <v>0.98</v>
       </c>
-      <c r="J127" s="1" t="s">
+      <c r="L127" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="K127" s="4" t="s">
+      <c r="M127" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="L127" t="s">
+      <c r="N127" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="82.5" customHeight="1">
+    <row r="128" spans="1:14" ht="82.5" customHeight="1">
       <c r="A128" s="6">
         <v>43266.958333333336</v>
       </c>
@@ -7828,17 +7880,17 @@
       <c r="I128" s="1">
         <v>0.95</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="L128" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="K128" s="4" t="s">
+      <c r="M128" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="L128" t="s">
+      <c r="N128" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="82.5" customHeight="1">
+    <row r="129" spans="1:14" ht="82.5" customHeight="1">
       <c r="A129" s="6">
         <v>43267.5625</v>
       </c>
@@ -7866,17 +7918,17 @@
       <c r="I129" s="1">
         <v>0.91</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="L129" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="K129" s="4" t="s">
+      <c r="M129" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="L129" t="s">
+      <c r="N129" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="82.5" customHeight="1">
+    <row r="130" spans="1:14" ht="82.5" customHeight="1">
       <c r="A130" s="6">
         <v>43267.729166666664</v>
       </c>
@@ -7904,17 +7956,17 @@
       <c r="I130" s="1">
         <v>0.96</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="L130" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="K130" s="4" t="s">
+      <c r="M130" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="L130" t="s">
+      <c r="N130" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="82.5" customHeight="1">
+    <row r="131" spans="1:14" ht="82.5" customHeight="1">
       <c r="A131" s="6">
         <v>43267.854166666664</v>
       </c>
@@ -7942,17 +7994,17 @@
       <c r="I131" s="1">
         <v>0.96</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="L131" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="K131" s="4" t="s">
+      <c r="M131" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="L131" t="s">
+      <c r="N131" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="82.5" customHeight="1">
+    <row r="132" spans="1:14" ht="82.5" customHeight="1">
       <c r="A132" s="6">
         <v>43267.972222222219</v>
       </c>
@@ -7980,17 +8032,17 @@
       <c r="I132" s="1">
         <v>0.97</v>
       </c>
-      <c r="J132" s="1" t="s">
+      <c r="L132" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="K132" s="4" t="s">
+      <c r="M132" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="L132" t="s">
+      <c r="N132" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="82.5" customHeight="1">
+    <row r="133" spans="1:14" ht="82.5" customHeight="1">
       <c r="A133" s="6">
         <v>43268.618055555555</v>
       </c>
@@ -8018,17 +8070,17 @@
       <c r="I133" s="1">
         <v>0.89</v>
       </c>
-      <c r="J133" s="1" t="s">
+      <c r="L133" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="K133" s="4" t="s">
+      <c r="M133" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="L133" t="s">
+      <c r="N133" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="82.5" customHeight="1">
+    <row r="134" spans="1:14" ht="82.5" customHeight="1">
       <c r="A134" s="6">
         <v>43268.944444444445</v>
       </c>
@@ -8056,17 +8108,17 @@
       <c r="I134" s="1">
         <v>0.91</v>
       </c>
-      <c r="J134" s="1" t="s">
+      <c r="L134" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="K134" s="4" t="s">
+      <c r="M134" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="L134" t="s">
+      <c r="N134" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="82.5" customHeight="1">
+    <row r="135" spans="1:14" ht="82.5" customHeight="1">
       <c r="A135" s="6">
         <v>43269.895833333336</v>
       </c>
@@ -8094,17 +8146,17 @@
       <c r="I135" s="1">
         <v>0.92</v>
       </c>
-      <c r="J135" s="1" t="s">
+      <c r="L135" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="K135" s="4" t="s">
+      <c r="M135" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="L135" t="s">
+      <c r="N135" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="82.5" customHeight="1">
+    <row r="136" spans="1:14" ht="82.5" customHeight="1">
       <c r="A136" s="6">
         <v>43270.340277777781</v>
       </c>
@@ -8132,17 +8184,17 @@
       <c r="I136" s="1">
         <v>0.98</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="L136" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="K136" s="4" t="s">
+      <c r="M136" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="L136" t="s">
+      <c r="N136" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="82.5" customHeight="1">
+    <row r="137" spans="1:14" ht="82.5" customHeight="1">
       <c r="A137" s="6">
         <v>43270.944444444445</v>
       </c>
@@ -8170,17 +8222,17 @@
       <c r="I137" s="1">
         <v>0.94</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="L137" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="K137" s="4" t="s">
+      <c r="M137" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="L137" t="s">
+      <c r="N137" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="82.5" customHeight="1">
+    <row r="138" spans="1:14" ht="82.5" customHeight="1">
       <c r="A138" s="6">
         <v>43271.916666666664</v>
       </c>
@@ -8208,17 +8260,17 @@
       <c r="I138" s="1">
         <v>0.95</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="L138" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="K138" s="4" t="s">
+      <c r="M138" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="L138" t="s">
+      <c r="N138" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="82.5" customHeight="1">
+    <row r="139" spans="1:14" ht="82.5" customHeight="1">
       <c r="A139" s="6">
         <v>43272.055555555555</v>
       </c>
@@ -8246,17 +8298,17 @@
       <c r="I139" s="1">
         <v>0.85</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="L139" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="K139" s="4" t="s">
+      <c r="M139" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="L139" t="s">
+      <c r="N139" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="82.5" customHeight="1">
+    <row r="140" spans="1:14" ht="82.5" customHeight="1">
       <c r="A140" s="6">
         <v>43272.631944444445</v>
       </c>
@@ -8284,17 +8336,17 @@
       <c r="I140" s="1">
         <v>0.81</v>
       </c>
-      <c r="J140" s="1" t="s">
+      <c r="L140" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="K140" s="4" t="s">
+      <c r="M140" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="L140" t="s">
+      <c r="N140" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="82.5" customHeight="1">
+    <row r="141" spans="1:14" ht="82.5" customHeight="1">
       <c r="A141" s="6">
         <v>43272.944444444445</v>
       </c>
@@ -8322,17 +8374,17 @@
       <c r="I141" s="1">
         <v>0.8</v>
       </c>
-      <c r="J141" s="1" t="s">
+      <c r="L141" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="K141" s="4" t="s">
+      <c r="M141" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="L141" t="s">
+      <c r="N141" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="82.5" customHeight="1">
+    <row r="142" spans="1:14" ht="82.5" customHeight="1">
       <c r="A142" s="6">
         <v>43273.375</v>
       </c>
@@ -8360,17 +8412,17 @@
       <c r="I142" s="1">
         <v>0.95</v>
       </c>
-      <c r="J142" s="1" t="s">
+      <c r="L142" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="K142" s="4" t="s">
+      <c r="M142" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="L142" t="s">
+      <c r="N142" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="143" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+    <row r="143" spans="1:14" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A143" s="8">
         <v>43273.638888888891</v>
       </c>
@@ -8398,17 +8450,19 @@
       <c r="I143" s="9">
         <v>0.999</v>
       </c>
-      <c r="J143" s="9" t="s">
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="K143" s="10" t="s">
+      <c r="M143" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="L143" s="11" t="s">
+      <c r="N143" s="11" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="82.5" customHeight="1">
+    <row r="144" spans="1:14" ht="82.5" customHeight="1">
       <c r="A144" s="6">
         <v>43273.923611111109</v>
       </c>
@@ -8436,17 +8490,17 @@
       <c r="I144" s="1">
         <v>0.82</v>
       </c>
-      <c r="J144" s="1" t="s">
+      <c r="L144" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="K144" s="4" t="s">
+      <c r="M144" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="L144" t="s">
+      <c r="N144" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="82.5" customHeight="1">
+    <row r="145" spans="1:14" ht="82.5" customHeight="1">
       <c r="A145" s="6">
         <v>43274.534722222219</v>
       </c>
@@ -8474,17 +8528,17 @@
       <c r="I145" s="1">
         <v>0.99</v>
       </c>
-      <c r="J145" s="1" t="s">
+      <c r="L145" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="K145" s="4" t="s">
+      <c r="M145" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="L145" t="s">
+      <c r="N145" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="82.5" customHeight="1">
+    <row r="146" spans="1:14" ht="82.5" customHeight="1">
       <c r="A146" s="6">
         <v>43274.923611111109</v>
       </c>
@@ -8512,17 +8566,17 @@
       <c r="I146" s="1">
         <v>0.91</v>
       </c>
-      <c r="J146" s="1" t="s">
+      <c r="L146" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="K146" s="4" t="s">
+      <c r="M146" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="L146" t="s">
+      <c r="N146" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="82.5" customHeight="1">
+    <row r="147" spans="1:14" ht="82.5" customHeight="1">
       <c r="A147" s="6">
         <v>43274.423611111109</v>
       </c>
@@ -8550,17 +8604,17 @@
       <c r="I147" s="1">
         <v>1</v>
       </c>
-      <c r="J147" s="1" t="s">
+      <c r="L147" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="K147" s="4" t="s">
+      <c r="M147" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="L147" t="s">
+      <c r="N147" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+    <row r="148" spans="1:14" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A148" s="8">
         <v>43275.826388888891</v>
       </c>
@@ -8588,17 +8642,19 @@
       <c r="I148" s="9">
         <v>0.95</v>
       </c>
-      <c r="J148" s="9" t="s">
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="K148" s="10" t="s">
+      <c r="M148" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="L148" s="11" t="s">
+      <c r="N148" s="11" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="82.5" customHeight="1">
+    <row r="149" spans="1:14" ht="82.5" customHeight="1">
       <c r="A149" s="6">
         <v>43275.972222222219</v>
       </c>
@@ -8626,17 +8682,17 @@
       <c r="I149" s="1">
         <v>0.94</v>
       </c>
-      <c r="J149" s="1" t="s">
+      <c r="L149" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="K149" s="4" t="s">
+      <c r="M149" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="L149" t="s">
+      <c r="N149" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="150" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+    <row r="150" spans="1:14" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A150" s="8">
         <v>43276.965277777781</v>
       </c>
@@ -8664,17 +8720,19 @@
       <c r="I150" s="9">
         <v>0.96</v>
       </c>
-      <c r="J150" s="9" t="s">
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="K150" s="10" t="s">
+      <c r="M150" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="L150" s="11" t="s">
+      <c r="N150" s="11" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="82.5" customHeight="1">
+    <row r="151" spans="1:14" ht="82.5" customHeight="1">
       <c r="A151" s="6">
         <v>43277.354166666664</v>
       </c>
@@ -8702,17 +8760,17 @@
       <c r="I151" s="1">
         <v>0.84</v>
       </c>
-      <c r="J151" s="1" t="s">
+      <c r="L151" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="K151" s="4" t="s">
+      <c r="M151" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="L151" t="s">
+      <c r="N151" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+    <row r="152" spans="1:14" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A152" s="8">
         <v>43277.951388888891</v>
       </c>
@@ -8740,17 +8798,19 @@
       <c r="I152" s="9">
         <v>0.96</v>
       </c>
-      <c r="J152" s="9" t="s">
+      <c r="J152" s="9"/>
+      <c r="K152" s="9"/>
+      <c r="L152" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="K152" s="10" t="s">
+      <c r="M152" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="L152" s="11" t="s">
+      <c r="N152" s="11" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="82.5" customHeight="1">
+    <row r="153" spans="1:14" ht="82.5" customHeight="1">
       <c r="A153" s="6">
         <v>43278.722222222219</v>
       </c>
@@ -8778,17 +8838,17 @@
       <c r="I153" s="1">
         <v>0.85</v>
       </c>
-      <c r="J153" s="1" t="s">
+      <c r="L153" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="K153" s="4" t="s">
+      <c r="M153" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="L153" t="s">
+      <c r="N153" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="82.5" customHeight="1">
+    <row r="154" spans="1:14" ht="82.5" customHeight="1">
       <c r="A154" s="6">
         <v>43278.951388888891</v>
       </c>
@@ -8816,17 +8876,17 @@
       <c r="I154" s="1">
         <v>0.76</v>
       </c>
-      <c r="J154" s="1" t="s">
+      <c r="L154" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="K154" s="4" t="s">
+      <c r="M154" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="L154" t="s">
+      <c r="N154" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="82.5" customHeight="1">
+    <row r="155" spans="1:14" ht="82.5" customHeight="1">
       <c r="A155" s="6">
         <v>43279.743055555555</v>
       </c>
@@ -8854,17 +8914,17 @@
       <c r="I155" s="1">
         <v>0.69</v>
       </c>
-      <c r="J155" s="1" t="s">
+      <c r="L155" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="K155" s="4" t="s">
+      <c r="M155" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="L155" t="s">
+      <c r="N155" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="82.5" customHeight="1">
+    <row r="156" spans="1:14" ht="82.5" customHeight="1">
       <c r="A156" s="6">
         <v>43279.979166666664</v>
       </c>
@@ -8892,17 +8952,17 @@
       <c r="I156" s="1">
         <v>0.86</v>
       </c>
-      <c r="J156" s="1" t="s">
+      <c r="L156" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="K156" s="4" t="s">
+      <c r="M156" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="L156" t="s">
+      <c r="N156" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="82.5" customHeight="1">
+    <row r="157" spans="1:14" ht="82.5" customHeight="1">
       <c r="A157" s="6">
         <v>43280.680555555555</v>
       </c>
@@ -8930,17 +8990,17 @@
       <c r="I157" s="1">
         <v>0.84</v>
       </c>
-      <c r="J157" s="1" t="s">
+      <c r="L157" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="K157" s="4" t="s">
+      <c r="M157" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="L157" t="s">
+      <c r="N157" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="158" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+    <row r="158" spans="1:14" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A158" s="8">
         <v>43280.951388888891</v>
       </c>
@@ -8968,17 +9028,19 @@
       <c r="I158" s="9">
         <v>1</v>
       </c>
-      <c r="J158" s="9" t="s">
+      <c r="J158" s="9"/>
+      <c r="K158" s="9"/>
+      <c r="L158" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="K158" s="10" t="s">
+      <c r="M158" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="L158" s="11" t="s">
+      <c r="N158" s="11" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="82.5" customHeight="1">
+    <row r="159" spans="1:14" ht="82.5" customHeight="1">
       <c r="A159" s="6">
         <v>43282.472222222219</v>
       </c>
@@ -9006,17 +9068,17 @@
       <c r="I159" s="1">
         <v>0.86</v>
       </c>
-      <c r="J159" s="1" t="s">
+      <c r="L159" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="K159" s="4" t="s">
+      <c r="M159" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="L159" t="s">
+      <c r="N159" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="160" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+    <row r="160" spans="1:14" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A160" s="8">
         <v>43283.958333333336</v>
       </c>
@@ -9044,17 +9106,19 @@
       <c r="I160" s="9">
         <v>0.99</v>
       </c>
-      <c r="J160" s="9" t="s">
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="K160" s="10" t="s">
+      <c r="M160" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="L160" s="11" t="s">
+      <c r="N160" s="11" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="161" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+    <row r="161" spans="1:14" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A161" s="8">
         <v>43284.638888888891</v>
       </c>
@@ -9082,17 +9146,19 @@
       <c r="I161" s="9">
         <v>0.99</v>
       </c>
-      <c r="J161" s="9" t="s">
+      <c r="J161" s="9"/>
+      <c r="K161" s="9"/>
+      <c r="L161" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="K161" s="10" t="s">
+      <c r="M161" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="L161" s="11" t="s">
+      <c r="N161" s="11" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="162" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+    <row r="162" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
       <c r="A162" s="16">
         <v>43284.923611111109</v>
       </c>
@@ -9120,17 +9186,19 @@
       <c r="I162" s="17">
         <v>1</v>
       </c>
-      <c r="J162" s="17" t="s">
+      <c r="J162" s="17"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="K162" s="18" t="s">
+      <c r="M162" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="L162" s="19" t="s">
+      <c r="N162" s="19" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="163" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+    <row r="163" spans="1:14" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A163" s="8">
         <v>43290.340277777781</v>
       </c>
@@ -9158,17 +9226,19 @@
       <c r="I163" s="9">
         <v>0.95</v>
       </c>
-      <c r="J163" s="9" t="s">
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
+      <c r="L163" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="K163" s="10" t="s">
+      <c r="M163" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="L163" s="11" t="s">
+      <c r="N163" s="11" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="164" spans="1:12" s="11" customFormat="1" ht="82.5" customHeight="1">
+    <row r="164" spans="1:14" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A164" s="8">
         <v>43292.763888888891</v>
       </c>
@@ -9196,17 +9266,19 @@
       <c r="I164" s="9">
         <v>0.99</v>
       </c>
-      <c r="J164" s="9" t="s">
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="K164" s="10" t="s">
+      <c r="M164" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="L164" s="11" t="s">
+      <c r="N164" s="11" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="165" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+    <row r="165" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
       <c r="A165" s="16">
         <v>43294.416666666664</v>
       </c>
@@ -9234,17 +9306,19 @@
       <c r="I165" s="17">
         <v>0.85</v>
       </c>
-      <c r="J165" s="17" t="s">
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="K165" s="18" t="s">
+      <c r="M165" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="L165" s="19" t="s">
+      <c r="N165" s="19" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="166" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+    <row r="166" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
       <c r="A166" s="16">
         <v>43296.916666666664</v>
       </c>
@@ -9272,17 +9346,19 @@
       <c r="I166" s="17">
         <v>0.85</v>
       </c>
-      <c r="J166" s="17" t="s">
+      <c r="J166" s="17"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="K166" s="18" t="s">
+      <c r="M166" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="L166" s="19" t="s">
+      <c r="N166" s="19" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="167" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+    <row r="167" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
       <c r="A167" s="16">
         <v>43306.354166666664</v>
       </c>
@@ -9310,17 +9386,19 @@
       <c r="I167" s="17">
         <v>0.99</v>
       </c>
-      <c r="J167" s="17" t="s">
+      <c r="J167" s="17"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="K167" s="18" t="s">
+      <c r="M167" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="L167" s="19" t="s">
+      <c r="N167" s="19" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="168" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+    <row r="168" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
       <c r="A168" s="16">
         <v>43307.375</v>
       </c>
@@ -9348,17 +9426,19 @@
       <c r="I168" s="17">
         <v>0.99</v>
       </c>
-      <c r="J168" s="17" t="s">
+      <c r="J168" s="17"/>
+      <c r="K168" s="17"/>
+      <c r="L168" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="K168" s="18" t="s">
+      <c r="M168" s="18" t="s">
         <v>672</v>
       </c>
-      <c r="L168" s="19" t="s">
+      <c r="N168" s="19" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="169" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+    <row r="169" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
       <c r="A169" s="16">
         <v>43294.756944444445</v>
       </c>
@@ -9386,17 +9466,19 @@
       <c r="I169" s="17">
         <v>0.99</v>
       </c>
-      <c r="J169" s="17" t="s">
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="K169" s="18" t="s">
+      <c r="M169" s="18" t="s">
         <v>676</v>
       </c>
-      <c r="L169" s="19" t="s">
+      <c r="N169" s="19" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+    <row r="170" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
       <c r="A170" s="16">
         <v>43295.888888888891</v>
       </c>
@@ -9424,17 +9506,19 @@
       <c r="I170" s="17">
         <v>0.89</v>
       </c>
-      <c r="J170" s="17" t="s">
+      <c r="J170" s="17"/>
+      <c r="K170" s="17"/>
+      <c r="L170" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="K170" s="18" t="s">
+      <c r="M170" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="L170" s="19" t="s">
+      <c r="N170" s="19" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="171" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+    <row r="171" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
       <c r="A171" s="16">
         <v>43296.944444444445</v>
       </c>
@@ -9462,17 +9546,19 @@
       <c r="I171" s="17">
         <v>0.95</v>
       </c>
-      <c r="J171" s="17" t="s">
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
+      <c r="L171" s="17" t="s">
         <v>684</v>
       </c>
-      <c r="K171" s="18" t="s">
+      <c r="M171" s="18" t="s">
         <v>676</v>
       </c>
-      <c r="L171" s="19" t="s">
+      <c r="N171" s="19" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="172" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+    <row r="172" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
       <c r="A172" s="16">
         <v>43328.368055555555</v>
       </c>
@@ -9500,17 +9586,19 @@
       <c r="I172" s="17">
         <v>0.89</v>
       </c>
-      <c r="J172" s="17" t="s">
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17" t="s">
         <v>687</v>
       </c>
-      <c r="K172" s="18" t="s">
+      <c r="M172" s="18" t="s">
         <v>688</v>
       </c>
-      <c r="L172" s="19" t="s">
+      <c r="N172" s="19" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="19" customFormat="1" ht="82.5" customHeight="1">
+    <row r="173" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
       <c r="A173" s="16">
         <v>43297.923611111109</v>
       </c>
@@ -9538,14 +9626,60 @@
       <c r="I173" s="17">
         <v>0.71</v>
       </c>
-      <c r="J173" s="17" t="s">
+      <c r="J173" s="17"/>
+      <c r="K173" s="17"/>
+      <c r="L173" s="17" t="s">
         <v>691</v>
       </c>
-      <c r="K173" s="18" t="s">
+      <c r="M173" s="18" t="s">
         <v>693</v>
       </c>
-      <c r="L173" s="19" t="s">
+      <c r="N173" s="19" t="s">
         <v>690</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A174" s="16">
+        <v>43329.361111111109</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C174" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E174" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="F174" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="G174" s="17">
+        <v>0.41</v>
+      </c>
+      <c r="H174" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="I174" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="J174" s="17">
+        <v>146.4</v>
+      </c>
+      <c r="K174" s="17">
+        <v>148.9</v>
+      </c>
+      <c r="L174" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="M174" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="N174" s="19" t="s">
+        <v>699</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="710">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2623,6 +2623,36 @@
   </si>
   <si>
     <t>泛化熵值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练train-autd365-2018-8-13-day-high300-date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约18小时，拟合开始超过泛化，泛化最好为0.29。没有什么提高了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-autd365-8-17-high-ori17-date-percent26</t>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练train-hjxh365-2018-4-16-day-high-ori16-date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-8-19-high-ori16-date-percent65</t>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练train-hjxh365-2018-4-16-day-high-ori16-date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约30小时，拟合开始超过泛化，泛化最好为0.67。没有什么提高了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3053,10 +3083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="J176" sqref="J176"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9492,7 +9522,7 @@
         <v>677</v>
       </c>
       <c r="E170" s="17" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="F170" s="17">
         <v>0.65</v>
@@ -9680,6 +9710,94 @@
       </c>
       <c r="N174" s="19" t="s">
         <v>699</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A175" s="16">
+        <v>43298.993055555555</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C175" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="D175" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="E175" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="F175" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="G175" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="H175" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="I175" s="17">
+        <v>0.88</v>
+      </c>
+      <c r="J175" s="17">
+        <v>85.93</v>
+      </c>
+      <c r="K175" s="17">
+        <v>87.92</v>
+      </c>
+      <c r="L175" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="M175" s="18" t="s">
+        <v>693</v>
+      </c>
+      <c r="N175" s="19" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A176" s="16">
+        <v>43300.930555555555</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C176" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="E176" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="F176" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="G176" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="H176" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="I176" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="J176" s="17">
+        <v>87.66</v>
+      </c>
+      <c r="K176" s="17">
+        <v>96.18</v>
+      </c>
+      <c r="L176" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="M176" s="18" t="s">
+        <v>676</v>
+      </c>
+      <c r="N176" s="19" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="717">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2653,6 +2653,32 @@
   </si>
   <si>
     <t>14分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-8-18-high100-ori16-date-percent66</t>
+  </si>
+  <si>
+    <t>python feed_run.py --output_mode=classes --output_nodes=13 --input_nums=16 --input_nodes=16 --low_nums=2 --low_nodes=16 --low_fun=elu --one_hot=True --input_fun=tanh  --batch_size=100 --learning_rate=0.001 --train_mode=Adadelta --eval_size=5460 --test_size=1365 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>最高标签，重新训练train-365-hjxh-2018-8-14-day-high100-date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约36小时，拟合开始超过泛化，泛化最好为0.66。没有什么提高了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-8-20-low100-ori16-date-percent65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低标签，重新训练train-365-hjxh-2018-8-14-day-low100-date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3083,10 +3109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9798,6 +9824,90 @@
       </c>
       <c r="N176" s="19" t="s">
         <v>706</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A177" s="16">
+        <v>43299.833333333336</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="E177" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="F177" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="G177" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="H177" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="I177" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="M177" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="N177" s="19" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A178" s="16">
+        <v>43301.347222222219</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="E178" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="F178" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="G178" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="H178" s="17">
+        <v>1</v>
+      </c>
+      <c r="I178" s="17">
+        <v>1</v>
+      </c>
+      <c r="J178" s="17">
+        <v>100.2</v>
+      </c>
+      <c r="K178" s="17">
+        <v>96.69</v>
+      </c>
+      <c r="L178" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="M178" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="N178" s="19" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="723">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2678,8 +2678,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>经过约48小时，拟合已在泛化之上，泛化最好为0.45。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-8-23-low200-ori16-date-percent42</t>
+  </si>
+  <si>
     <t>最低标签，重新训练train-365-hjxh-2018-8-14-day-low100-date</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低标签，重新训练train-365-hjxh-2018-8-14-day-low200-date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低标签，重新训练train-365-hjxh-2018-8-14-day-high300-date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约33小时，拟合在泛化之上，泛化最好为0.34。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-hjxh365-8-24-high300-ori16-date-percent33</t>
   </si>
 </sst>
 </file>
@@ -3109,10 +3131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N178"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+      <selection activeCell="N180" sqref="N180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9880,7 +9902,7 @@
         <v>641</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F178" s="17">
         <v>0.66</v>
@@ -9908,6 +9930,94 @@
       </c>
       <c r="N178" s="19" t="s">
         <v>715</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A179" s="16">
+        <v>43335.347222222219</v>
+      </c>
+      <c r="B179" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E179" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="F179" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="G179" s="17">
+        <v>0.42</v>
+      </c>
+      <c r="H179" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="I179" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="J179" s="17">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="K179" s="17">
+        <v>159.5</v>
+      </c>
+      <c r="L179" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="M179" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="N179" s="19" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A180" s="16">
+        <v>43336.743055555555</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E180" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="F180" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="G180" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="H180" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="I180" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="J180" s="17">
+        <v>182</v>
+      </c>
+      <c r="K180" s="17">
+        <v>188</v>
+      </c>
+      <c r="L180" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="M180" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="N180" s="19" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="729">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2702,6 +2702,28 @@
   </si>
   <si>
     <t>logs-hjxh365-8-24-high300-ori16-date-percent33</t>
+  </si>
+  <si>
+    <t>11分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size=40 low_nums=2 use_biases=yes use_bn_input=True use_bn_low=True </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-autd365-9-1-high100-round-classes11-ori17-date-percent58</t>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练train-autd365-2018-8-31-day-high100-round-date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3 feed_run.py --output_mode=classes --output_nodes=11 --input_nums=17 --input_nodes=17 --low_nums=2 --low_nodes=17 --low_fun=elu --one_hot=True --input_fun=tanh --batch_size=40 --learning_rate=0.001 --train_mode=Adadelta --eval_size=2720 --test_size=679 --use_biases=yes --use_bn_input=True --use_bn_low=True</t>
+  </si>
+  <si>
+    <t>经过约12.4小时，拟合与泛化重叠，泛化最好为0.61。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3131,10 +3153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N180"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="N180" sqref="N180"/>
+      <selection activeCell="L181" sqref="L181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10018,6 +10040,50 @@
       </c>
       <c r="N180" s="19" t="s">
         <v>722</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A181" s="16">
+        <v>43344.916666666664</v>
+      </c>
+      <c r="B181" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="E181" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="F181" s="17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G181" s="17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H181" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="I181" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="J181" s="17">
+        <v>47.95</v>
+      </c>
+      <c r="K181" s="17">
+        <v>47.36</v>
+      </c>
+      <c r="L181" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="M181" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="N181" s="19" t="s">
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="732">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2724,6 +2724,17 @@
   <si>
     <t>经过约12.4小时，拟合与泛化重叠，泛化最好为0.61。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练train-autd365-2018-8-31-day-low100-round-date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约12小时，拟合与泛化重叠，泛化最好为0.58。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-autd365-9-2-low100-round-classes11-ori17-date-percent53</t>
   </si>
 </sst>
 </file>
@@ -3153,10 +3164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="L181" sqref="L181"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="N182" sqref="N182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10084,6 +10095,50 @@
       </c>
       <c r="N181" s="19" t="s">
         <v>725</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A182" s="16">
+        <v>43345.854166666664</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="E182" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="F182" s="17">
+        <v>0.53</v>
+      </c>
+      <c r="G182" s="17">
+        <v>0.54</v>
+      </c>
+      <c r="H182" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="I182" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="J182" s="17">
+        <v>55.64</v>
+      </c>
+      <c r="K182" s="17">
+        <v>55.27</v>
+      </c>
+      <c r="L182" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="M182" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="N182" s="19" t="s">
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/analyse/训练记录-autd.xlsx
+++ b/analyse/训练记录-autd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="738">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2735,6 +2735,28 @@
   </si>
   <si>
     <t>logs-autd365-9-2-low100-round-classes11-ori17-date-percent53</t>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练train-autd365-2018-8-31-day-high100-roundup-date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约13.5小时，拟合与泛化重叠，泛化最好为0.55。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-autd365-9-8-high100-roundup-classes11-ori17-date-percent52</t>
+  </si>
+  <si>
+    <t>最高标签，接着上次训练train-autd365-2018-8-31-day-low100-rounddown-date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过约13.5小时，拟合超过泛化，泛化最好为0.47。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logs-autd365-9-8-low100-rounddown-classes11-ori17-date-percent46</t>
   </si>
 </sst>
 </file>
@@ -3164,10 +3186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N182"/>
+  <dimension ref="A1:N184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="N182" sqref="N182"/>
+      <selection activeCell="N184" sqref="N184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10139,6 +10161,94 @@
       </c>
       <c r="N182" s="19" t="s">
         <v>731</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A183" s="16">
+        <v>43351.958333333336</v>
+      </c>
+      <c r="B183" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="E183" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="F183" s="17">
+        <v>0.52</v>
+      </c>
+      <c r="G183" s="17">
+        <v>0.52</v>
+      </c>
+      <c r="H183" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="I183" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="J183" s="17">
+        <v>50.16</v>
+      </c>
+      <c r="K183" s="17">
+        <v>50.85</v>
+      </c>
+      <c r="L183" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="M183" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="N183" s="19" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" s="19" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A184" s="16">
+        <v>43345.958333333336</v>
+      </c>
+      <c r="B184" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="E184" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="F184" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="G184" s="17">
+        <v>0.46</v>
+      </c>
+      <c r="H184" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="I184" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="J184" s="17">
+        <v>53.4</v>
+      </c>
+      <c r="K184" s="17">
+        <v>55.26</v>
+      </c>
+      <c r="L184" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="M184" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="N184" s="19" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
